--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810C78DC-C9AB-413B-8545-394A27BB106F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD6656-1F12-4FA5-9842-72C30046594F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="p1" sheetId="13" r:id="rId1"/>
+    <sheet name="index" sheetId="14" r:id="rId1"/>
+    <sheet name="p1" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>header1</t>
   </si>
@@ -632,12 +633,45 @@
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>&lt;a class="btn btn-primary btn-xs" role="button" href="https://support.vle.hiroshima-u.ac.jp/draft:guide:top2" style="width:45%"&gt;マニュアルの目次へ戻る&lt;/a&gt;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>広大moodle 教職員向けマニュアル _課題</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒロダイ </t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>キョウショクイン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;h3&gt;課題&lt;/h3&gt;&lt;br&gt;
+moodle の課題は、学生の回答方法として、ファイル提出かオンラインテキスト入力かを指定することができます。
+また課題提出後には、レポートについてのフィードバック（コメント）や評定（点数等）を追加することもできます。&lt;br &gt;
+</t>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,6 +741,13 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -730,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +801,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1074,11 +1122,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C01E2-8AEC-4854-958D-64E66A6D4924}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="94.5">
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1297,24 +1408,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1563,7 +1656,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1572,18 +1665,25 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1602,10 +1702,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CD6656-1F12-4FA5-9842-72C30046594F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29013650-CA5B-4FB5-B087-41A10AC2B4BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
     <sheet name="p1" sheetId="13" r:id="rId2"/>
+    <sheet name="p2" sheetId="17" r:id="rId3"/>
+    <sheet name="p3" sheetId="18" r:id="rId4"/>
+    <sheet name="p4" sheetId="19" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>header1</t>
   </si>
@@ -56,17 +59,6 @@
   </si>
   <si>
     <t>課題名と必要であれば説明を入力します。</t>
-  </si>
-  <si>
-    <t>⚫ 提出タイプ
-ここでは課題の提出方法を選択します。
-提出タイプ：
-オンラインテキスト：画面で直接テキスト入力して回答させる方法です。
-語数制限：学生が提出することができる（英語での）最大語数です。
-ファイル提出：ファイル提出での回答を求めます。
-最大アップロードファイル数：提出可能なファイル数の上限です。
-最大提出サイズ：アップロード可能なファイルサイズの上限です。
-許可されるファイルタイプ：ファイルの拡張子で指定します。</t>
   </si>
   <si>
     <t>確認する課題をクリックします</t>
@@ -361,36 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> モジュール共通設定
-利用：課題を学生に公開するか否かを選択します。
-ID ナンバー：評定計算の目的で活動を識別できます。評定計算に活動が含まれていない場合、空白のままにすることができます。
-グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます。
-グループなし：グループ分けを使用しません。
-分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます。
-可視グループ：グループ別に活動を実施します。学生は、他のグループを閲覧できます。
-グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます。
-</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます。［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします。
 学生に通知するにチェックすると、学生にメールが送信されます。
 ここにメールアドレスが表示されます</t>
@@ -399,231 +361,6 @@
   <si>
     <t>&lt;h4&gt;&lt;a name="quick"&gt;&lt;/a&gt;クイック評定&lt;/h4&gt;
 評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法もあります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>moodle の課題は、学生の回答方法として、ファイル提出かオンラインテキスト入力かを指定することができます。
-また課題提出後には、レポートについてのフィードバック（コメント）や評定（点数等）を追加することもできます。
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>create</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;課題を作成する&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>conf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;課題の提出状況を確認する&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>extend</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;提出期限を延長する&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>evaluate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;課題の採点をする&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>download</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;課題提出物を一括でダウンロードする&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;採点結果を日付を指定して公開する&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>quick</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>"&gt;一覧表から評定する（クイック評定）&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
-    </r>
-    <rPh sb="182" eb="184">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>reate"&gt;&lt;/a&gt;課題を作成する&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -666,12 +403,90 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>課題を作成する</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>提出タイプ
+ここでは課題の提出方法を選択します。
+提出タイプ：
+オンラインテキスト：画面で直接テキスト入力して回答させる方法です。
+語数制限：学生が提出することができる（英語での）最大語数です。
+ファイル提出：ファイル提出での回答を求めます。
+最大アップロードファイル数：提出可能なファイル数の上限です。
+最大提出サイズ：アップロード可能なファイルサイズの上限です。
+許可されるファイルタイプ：ファイルの拡張子で指定します。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>⚫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> モジュール共通設定
+利用：課題を学生に公開するか否かを選択します。
+ID ナンバー：評定計算の目的で活動を識別できます。評定計算に活動が含まれていない場合、空白のままにすることができます。
+グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます。
+グループなし：グループ分けを使用しません。
+分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます。
+可視グループ：グループ別に活動を実施します。学生は、他のグループを閲覧できます。
+グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題提出物の一括ダウンロード</t>
+  </si>
+  <si>
+    <t>設定した課題の提出を確認します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,6 +563,18 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -771,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +635,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1125,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C01E2-8AEC-4854-958D-64E66A6D4924}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1140,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1148,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1156,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1166,12 +996,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="94.5">
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1186,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1212,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1232,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1243,161 +1073,481 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="198.75">
+    <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="40.5">
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="111">
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="124.5">
+      <c r="B12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="124.5">
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="192">
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="219">
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="70.5">
+      <c r="B16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="165">
+      <c r="B17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="151.5">
+      <c r="B18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="73.5">
+      <c r="B19" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F98158D-9F10-4D6D-B455-DB2797E35368}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="104" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD2457-B8D5-4B2C-9302-FA8021AA81C3}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="104" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="54">
+      <c r="B7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="27">
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="293.25" customHeight="1">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" ht="104.25" customHeight="1"/>
+    <row r="18" spans="3:4">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="20" spans="3:4" ht="18.75">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" ht="18.75">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="23" spans="3:4" ht="18.75">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="25" spans="3:4" ht="18.75">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" ht="18.75">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" ht="18.75">
+      <c r="D27" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943EABB-091B-42BE-9176-8E71F5B5B28C}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="104" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="32.25">
+      <c r="B6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
+    <row r="7" spans="1:4">
+      <c r="B7" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6" t="s">
-        <v>5</v>
+      <c r="B8" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="7" t="s">
-        <v>9</v>
+    <row r="11" spans="1:4" ht="54">
+      <c r="B11" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="40.5">
+    <row r="12" spans="1:4" ht="27">
       <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="111">
-      <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="B13" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="121.5">
-      <c r="B14" s="8" t="s">
-        <v>10</v>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="B14" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="124.5">
-      <c r="B15" s="9" t="s">
-        <v>22</v>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="B15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="192">
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
+    <row r="16" spans="1:4" ht="18.75">
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="219">
-      <c r="B17" s="8" t="s">
-        <v>24</v>
-      </c>
+    <row r="17" spans="3:4" ht="18.75">
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="70.5">
-      <c r="B18" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="18" spans="3:4" ht="18.75">
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="165">
-      <c r="B19" s="9" t="s">
-        <v>26</v>
-      </c>
+    <row r="19" spans="3:4" ht="18.75">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="293.25" customHeight="1">
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
+    <row r="20" spans="3:4" ht="293.25" customHeight="1">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="104.25" customHeight="1">
-      <c r="B21" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="32.25">
-      <c r="B22" s="6" t="s">
-        <v>18</v>
-      </c>
+    <row r="21" spans="3:4" ht="104.25" customHeight="1"/>
+    <row r="22" spans="3:4">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="18.75">
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
+    <row r="24" spans="3:4" ht="18.75">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="18.75">
-      <c r="B25" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="25" spans="3:4" ht="18.75">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="54">
-      <c r="B27" s="8" t="s">
-        <v>28</v>
-      </c>
+    <row r="27" spans="3:4" ht="18.75">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" ht="27">
-      <c r="B28" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="18.75">
-      <c r="B29" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="29" spans="3:4" ht="18.75">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" ht="18.75">
-      <c r="B30" s="7" t="s">
-        <v>15</v>
-      </c>
+    <row r="30" spans="3:4" ht="18.75">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" ht="18.75">
-      <c r="B31" s="7" t="s">
-        <v>16</v>
-      </c>
+    <row r="31" spans="3:4" ht="18.75">
       <c r="D31" s="1"/>
     </row>
   </sheetData>
@@ -1408,6 +1558,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1656,15 +1815,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1684,6 +1834,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1702,14 +1860,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29013650-CA5B-4FB5-B087-41A10AC2B4BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC4A3C-6477-4718-94AD-F3A5081CA1F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="2" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
     <sheet name="p1" sheetId="13" r:id="rId2"/>
     <sheet name="p2" sheetId="17" r:id="rId3"/>
     <sheet name="p3" sheetId="18" r:id="rId4"/>
-    <sheet name="p4" sheetId="19" r:id="rId5"/>
+    <sheet name="p4" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>header1</t>
   </si>
@@ -49,9 +49,6 @@
     <t>編集モードを開始します</t>
   </si>
   <si>
-    <t>課題</t>
-  </si>
-  <si>
     <t>課題を作成したいセクションの［+ 活動またはリソースを追加する］をクリックします</t>
   </si>
   <si>
@@ -77,290 +74,10 @@
   </si>
   <si>
     <t>評定の変更が保存された旨表示されます。［続ける］をクリックします</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 利用制限
-「13. 利用制限と活動完了」を参照してください。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 活動完了
-「13. 利用制限と活動完了」を参照してください。
-設定完了後、［保存して表示する］をクリックしてください。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;&lt;a name="download"&gt;&lt;/a&gt;課題提出物の一括ダウンロード&lt;/h</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;
-設定した課題の提出を確認します。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="Grade"&gt;&lt;/a&gt;評定&lt;/h4&gt;</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォルト値の課題が作成されます。
 このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります。また答案はファイル提出するようになります。これらの内容を変更されたい場合は、以降の設定値の説明を参照してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 利用
-[Yes]のチェックボックスにチェックした場合のみ、日時の指定が有効になります。
-開始日時：学生はこの日時以前に課題を提出することはできません。
-終了日時：この日時以降に提出された課題は「提出遅延」とマークされます。
-遮断日時：設定した場合、この日時以降は課題の提出を受け付けません。この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます。
-次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> フィードバックタイプ
-フィードバックコメントにチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます。
-フィードバックタイプ：
-フィードバックコメント：提出課題にフィードバックコメントを残すことができます。
-オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります。
-フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます。
-コメントインライン：オンラインテキストの課題の評定時にフィードバックをで入力することができます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 提出設定
-学生に提出ボタンのクリックを求める：［Yes］の場合、提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。
-例）提出ボタンを押す前の学生の提出ステータスページ
-学生に提出同意書の同意を求める：「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます。
-追加提出：学生が課題を追加提出できるか設定します。追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります。また追加提出の可否に関わらず、遮断日時前（遮断日時未設定の場合も含む）または提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態において、学生は提出物の差し替え、追加、削除は可能です。
-なし：学生が提出できるのは 1 回のみです。
-手動：教員の操作により、学生に追加提出させることができます。
-合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> グループ提出設定
-グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります。
-どのグループにも登録されていない学生はデフォルトグループに登録されます。グループ課題の提出物はグループ内で共有されます。グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがあります。必ずすべての学生をグループに登録してください。
-学生がグループで提出する：課題をグループ課題にするか否かを決めます。
-提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます。ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます。
-グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります。ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。
-学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します。予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります。また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります。
-</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 通知
-評定者に提出を通知する：学生が課題を提出すると教員にメッセージ通知が送信されます。
-提出遅延者に関して評定者に通知する：学生が課題提出に遅れた地点で、教員にメッセージが送信されます。
-「学生に通知する」のデフォルト設定：評定フォームの「学生に通知する」チェックボックスにデフォルト値を設定します。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> 評点
-タイプ：なし：評点を設定しません。
- 評点：最大評点を設定します。
- 尺度：「尺度」ドロップダウンリストから尺度を選択することができます。
-評定方法：評定方法を選択します。
-評定カテゴリ：評定表内のカテゴリを選択します。
-合格点：合格するために必要な最小評点を決定します。
-ブラインド評定：評定時に学生の個人情報が表示されません。
-採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります。教員が一連の評点を同じタイミングで学生すべてに公開することができます。
-採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます。［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします。
-学生に通知するにチェックすると、学生にメールが送信されます。
-ここにメールアドレスが表示されます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="quick"&gt;&lt;/a&gt;クイック評定&lt;/h4&gt;
-評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法もあります。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -407,34 +124,33 @@
     <t>課題を作成する</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>提出タイプ
-ここでは課題の提出方法を選択します。
+    <t>課題提出物の一括ダウンロード</t>
+  </si>
+  <si>
+    <t>設定した課題の提出を確認します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;</t>
+    <rPh sb="22" eb="24">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[Yes]のチェックボックスにチェックした場合のみ、日時の指定が有効になります。
+開始日時：学生はこの日時以前に課題を提出することはできません。
+終了日時：この日時以降に提出された課題は「提出遅延」とマークされます。
+遮断日時：設定した場合、この日時以降は課題の提出を受け付けません。この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます。
+次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは課題の提出方法を選択します。
 提出タイプ：
 オンラインテキスト：画面で直接テキスト入力して回答させる方法です。
 語数制限：学生が提出することができる（英語での）最大語数です。
@@ -442,43 +158,132 @@
 最大アップロードファイル数：提出可能なファイル数の上限です。
 最大提出サイズ：アップロード可能なファイルサイズの上限です。
 許可されるファイルタイプ：ファイルの拡張子で指定します。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>⚫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> モジュール共通設定
-利用：課題を学生に公開するか否かを選択します。
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィードバックコメントにチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます。
+フィードバックタイプ：
+フィードバックコメント：提出課題にフィードバックコメントを残すことができます。
+オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります。
+フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます。
+コメントインライン：オンラインテキストの課題の評定時にフィードバックをで入力することができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生に提出ボタンのクリックを求める：［Yes］の場合、提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。
+例）提出ボタンを押す前の学生の提出ステータスページ
+学生に提出同意書の同意を求める：「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます。
+追加提出：学生が課題を追加提出できるか設定します。追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります。また追加提出の可否に関わらず、遮断日時前（遮断日時未設定の場合も含む）または提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態において、学生は提出物の差し替え、追加、削除は可能です。
+なし：学生が提出できるのは 1 回のみです。
+手動：教員の操作により、学生に追加提出させることができます。
+合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります。
+どのグループにも登録されていない学生はデフォルトグループに登録されます。グループ課題の提出物はグループ内で共有されます。グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがあります。必ずすべての学生をグループに登録してください。
+学生がグループで提出する：課題をグループ課題にするか否かを決めます。
+提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます。ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます。
+グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります。ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。
+学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します。予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります。また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評定者に提出を通知する：学生が課題を提出すると教員にメッセージ通知が送信されます。
+提出遅延者に関して評定者に通知する：学生が課題提出に遅れた地点で、教員にメッセージが送信されます。
+「学生に通知する」のデフォルト設定：評定フォームの「学生に通知する」チェックボックスにデフォルト値を設定します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイプ：なし：評点を設定しません。
+ 評点：最大評点を設定します。
+ 尺度：「尺度」ドロップダウンリストから尺度を選択することができます。
+評定方法：評定方法を選択します。
+評定カテゴリ：評定表内のカテゴリを選択します。
+合格点：合格するために必要な最小評点を決定します。
+ブラインド評定：評定時に学生の個人情報が表示されません。
+採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります。教員が一連の評点を同じタイミングで学生すべてに公開することができます。
+採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用：課題を学生に公開するか否かを選択します。
 ID ナンバー：評定計算の目的で活動を識別できます。評定計算に活動が含まれていない場合、空白のままにすることができます。
 グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます。
 グループなし：グループ分けを使用しません。
 分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます。
 可視グループ：グループ別に活動を実施します。学生は、他のグループを閲覧できます。
 グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題提出物の一括ダウンロード</t>
-  </si>
-  <si>
-    <t>設定した課題の提出を確認します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="limit"&gt;&lt;/a&gt;利用制限と活動完了&lt;/h3&gt;</t>
+    <rPh sb="29" eb="33">
+      <t>カツドウカンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定完了後、［保存して表示する］をクリックしてください。</t>
+  </si>
+  <si>
+    <t>「13. 利用制限と活動完了」を参照してください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法もあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧表から評定する（クイック評定）</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生の評定を表示・入力する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生に通知するにチェックすると、学生にメールが送信されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここにメールアドレスが表示されます</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -486,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,29 +336,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック "/>
-      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -562,18 +347,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -598,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -626,17 +399,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -956,7 +732,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -966,46 +742,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>29</v>
+      <c r="B2" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>31</v>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" ht="54">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
-        <v>30</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="94.5">
-      <c r="B6" s="11" t="s">
-        <v>33</v>
+      <c r="B6" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="11"/>
+      <c r="B7" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1016,7 +792,223 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="104" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="40.5">
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="94.5">
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="108">
+      <c r="B17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
+      <c r="B18" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="108">
+      <c r="B19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="18.75">
+      <c r="B20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" ht="175.5">
+      <c r="B21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="18.75">
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="189">
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" ht="18.75">
+      <c r="B24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="54">
+      <c r="B25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="18.75">
+      <c r="B26" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" ht="148.5">
+      <c r="B27" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" ht="18.75">
+      <c r="B28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" ht="135">
+      <c r="B29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" ht="18.75">
+      <c r="B30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F98158D-9F10-4D6D-B455-DB2797E35368}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1062,99 +1054,46 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="B7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="40.5">
-      <c r="B10" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="111">
-      <c r="B11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="124.5">
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="124.5">
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="192">
-      <c r="B14" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="219">
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="70.5">
-      <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="165">
-      <c r="B17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="151.5">
-      <c r="B18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="73.5">
-      <c r="B19" s="13" t="s">
-        <v>16</v>
-      </c>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1163,12 +1102,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F98158D-9F10-4D6D-B455-DB2797E35368}">
-  <dimension ref="A1:D9"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD2457-B8D5-4B2C-9302-FA8021AA81C3}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="19" spans="3:4" ht="18.75">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" ht="18.75">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="22" spans="3:4" ht="18.75">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="24" spans="3:4" ht="18.75">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" ht="18.75">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" ht="18.75">
+      <c r="D26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1211,147 +1282,50 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="7" t="s">
-        <v>11</v>
+      <c r="B8" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>12</v>
+      <c r="B9" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD2457-B8D5-4B2C-9302-FA8021AA81C3}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="B6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="54">
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="27">
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
     <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>14</v>
+      <c r="B10" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="D13" s="1"/>
+    <row r="12" spans="1:4">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="18.75">
       <c r="D14" s="1"/>
@@ -1359,196 +1333,17 @@
     <row r="15" spans="1:4" ht="18.75">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="293.25" customHeight="1">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" ht="104.25" customHeight="1"/>
-    <row r="18" spans="3:4">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="20" spans="3:4" ht="18.75">
+    <row r="17" spans="4:4" ht="18.75">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="19" spans="4:4" ht="18.75">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" ht="18.75">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="3:4" ht="18.75">
+    <row r="21" spans="4:4" ht="18.75">
       <c r="D21" s="1"/>
-    </row>
-    <row r="23" spans="3:4" ht="18.75">
-      <c r="D23" s="1"/>
-    </row>
-    <row r="25" spans="3:4" ht="18.75">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="3:4" ht="18.75">
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="3:4" ht="18.75">
-      <c r="D27" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3943EABB-091B-42BE-9176-8E71F5B5B28C}">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="32.25">
-      <c r="B6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="54">
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="27">
-      <c r="B12" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="B13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="B14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" ht="18.75">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="3:4" ht="18.75">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="3:4" ht="18.75">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="3:4" ht="293.25" customHeight="1">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="3:4" ht="104.25" customHeight="1"/>
-    <row r="22" spans="3:4">
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="24" spans="3:4" ht="18.75">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="3:4" ht="18.75">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="27" spans="3:4" ht="18.75">
-      <c r="D27" s="1"/>
-    </row>
-    <row r="29" spans="3:4" ht="18.75">
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="3:4" ht="18.75">
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="3:4" ht="18.75">
-      <c r="D31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1558,15 +1353,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -1815,6 +1601,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1834,14 +1629,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1860,6 +1647,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>

--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEC4A3C-6477-4718-94AD-F3A5081CA1F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28058E-B7A0-4763-BA23-C0A0BC7C7324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
   <si>
     <t>header1</t>
   </si>
@@ -55,9 +55,6 @@
     <t>ダイアログから［課題］を選択します</t>
   </si>
   <si>
-    <t>課題名と必要であれば説明を入力します。</t>
-  </si>
-  <si>
     <t>確認する課題をクリックします</t>
   </si>
   <si>
@@ -74,11 +71,6 @@
   </si>
   <si>
     <t>評定の変更が保存された旨表示されます。［続ける］をクリックします</t>
-  </si>
-  <si>
-    <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォルト値の課題が作成されます。
-このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります。また答案はファイル提出するようになります。これらの内容を変更されたい場合は、以降の設定値の説明を参照してください。</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>広大moodle マニュアル guide41-subject</t>
@@ -124,9 +116,6 @@
     <t>課題を作成する</t>
   </si>
   <si>
-    <t>課題提出物の一括ダウンロード</t>
-  </si>
-  <si>
     <t>設定した課題の提出を確認します。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,107 +127,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[Yes]のチェックボックスにチェックした場合のみ、日時の指定が有効になります。
-開始日時：学生はこの日時以前に課題を提出することはできません。
-終了日時：この日時以降に提出された課題は「提出遅延」とマークされます。
-遮断日時：設定した場合、この日時以降は課題の提出を受け付けません。この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます。
-次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ここでは課題の提出方法を選択します。
-提出タイプ：
-オンラインテキスト：画面で直接テキスト入力して回答させる方法です。
-語数制限：学生が提出することができる（英語での）最大語数です。
-ファイル提出：ファイル提出での回答を求めます。
-最大アップロードファイル数：提出可能なファイル数の上限です。
-最大提出サイズ：アップロード可能なファイルサイズの上限です。
-許可されるファイルタイプ：ファイルの拡張子で指定します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィードバックコメントにチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます。
-フィードバックタイプ：
-フィードバックコメント：提出課題にフィードバックコメントを残すことができます。
-オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります。
-フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます。
-コメントインライン：オンラインテキストの課題の評定時にフィードバックをで入力することができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>学生に提出ボタンのクリックを求める：［Yes］の場合、提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。
-例）提出ボタンを押す前の学生の提出ステータスページ
-学生に提出同意書の同意を求める：「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます。
-追加提出：学生が課題を追加提出できるか設定します。追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります。また追加提出の可否に関わらず、遮断日時前（遮断日時未設定の場合も含む）または提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態において、学生は提出物の差し替え、追加、削除は可能です。
-なし：学生が提出できるのは 1 回のみです。
-手動：教員の操作により、学生に追加提出させることができます。
-合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります。
-どのグループにも登録されていない学生はデフォルトグループに登録されます。グループ課題の提出物はグループ内で共有されます。グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがあります。必ずすべての学生をグループに登録してください。
-学生がグループで提出する：課題をグループ課題にするか否かを決めます。
-提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます。ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます。
-グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります。ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。
-学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します。予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります。また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります。
-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>評定者に提出を通知する：学生が課題を提出すると教員にメッセージ通知が送信されます。
-提出遅延者に関して評定者に通知する：学生が課題提出に遅れた地点で、教員にメッセージが送信されます。
-「学生に通知する」のデフォルト設定：評定フォームの「学生に通知する」チェックボックスにデフォルト値を設定します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイプ：なし：評点を設定しません。
- 評点：最大評点を設定します。
- 尺度：「尺度」ドロップダウンリストから尺度を選択することができます。
-評定方法：評定方法を選択します。
-評定カテゴリ：評定表内のカテゴリを選択します。
-合格点：合格するために必要な最小評点を決定します。
-ブラインド評定：評定時に学生の個人情報が表示されません。
-採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります。教員が一連の評点を同じタイミングで学生すべてに公開することができます。
-採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用：課題を学生に公開するか否かを選択します。
-ID ナンバー：評定計算の目的で活動を識別できます。評定計算に活動が含まれていない場合、空白のままにすることができます。
-グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます。
-グループなし：グループ分けを使用しません。
-分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます。
-可視グループ：グループ別に活動を実施します。学生は、他のグループを閲覧できます。
-グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -249,41 +162,614 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>設定完了後、［保存して表示する］をクリックしてください。</t>
-  </si>
-  <si>
-    <t>「13. 利用制限と活動完了」を参照してください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法もあります。</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一覧表から評定する（クイック評定）</t>
-    <rPh sb="14" eb="16">
+    <t>学生に通知するにチェックすると、学生にメールが送信されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここにメールアドレスが表示されます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題提出物を一括でダウンロードする</t>
+  </si>
+  <si>
+    <t>一覧表から評定する：クイック評定</t>
+  </si>
+  <si>
+    <t>学生の評定を表示・入力する</t>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="make"&gt;&lt;/a&gt;課題の作成&lt;/h3&gt;</t>
+    <rPh sb="23" eb="25">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題名と必要であれば説明を入力します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定完了後、［保存して表示する］をクリックしてください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します
+[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります
+各パラメータの説明は以下のとおりです
+・開始日時：学生はこの日時以前に課題を提出することはできません
+・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます
+・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません
+　この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます
+・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です
+また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="279" eb="281">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="282" eb="284">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="298" eb="300">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="301" eb="303">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="305" eb="309">
+      <t>カイシニチジ</t>
+    </rPh>
+    <rPh sb="310" eb="312">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="313" eb="315">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="316" eb="318">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この状態で［保存してコースに戻る］をクリックすると、各種設定項目がデフォルト値の課題が作成されます
+このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります
+また答案はファイル提出するようになります
+これらの内容を変更されたい場合は、以降の設定値の説明を参照してください</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します
+・オンラインテキスト：画面で直接テキスト入力して回答させる方法です
+※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます
+・ファイル提出：ファイル提出での回答を求めます
+※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます
+　・最大アップロードファイル数：提出可能なファイル数の上限です
+　・最大提出サイズ：アップロード可能なファイルサイズの上限です
+　・許可されるファイルタイプ：ファイルの拡張子で指定します</t>
+    <rPh sb="40" eb="42">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ゴスウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます
+その他のパラメータについても必要なものにチェックを入れます
+[フィードバックタイプ]
+・PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます
+・オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートを
+　ダウンロードおよびアップロードできるようになります
+・フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます
+[コメントインライン]
+・コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
+    <rPh sb="64" eb="65">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="121" eb="124">
+      <t>ヒョウテイジ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします
+グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります
+どのグループにも登録されていない学生はデフォルトグループに登録されます
+※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください
+必要に応じて、次のパラメータの[Yes][No]を選択します
+・提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます
+ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます
+・グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります
+ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。
+・学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します
+予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります
+また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
+    <rPh sb="4" eb="6">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="236" eb="237">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="258" eb="260">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生が課題を提出すると教員にメッセージ通知が送信されるように設定したい場合は、[評定者に提出を通知する]をYesにします
+また、学生の課題提出の遅延についての教員へのメッセージ通知が必要な場合、[提出遅延者に関して評定者に通知する]をYesにします
+その他のパラメータの説明は以下のとおりです。
+・「学生に通知する」のデフォルト設定：それぞれの学生の評定を行う際、「学生に通知する」チェックボックスをデフォルトでONにしたい場合は、Yesにします
+　</t>
+    <rPh sb="30" eb="32">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
       <t>ヒョウテイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生の評定を表示・入力する</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生に通知するにチェックすると、学生にメールが送信されます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここにメールアドレスが表示されます</t>
+    <rPh sb="180" eb="181">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="182" eb="183">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します。
+[学生に提出ボタンのクリックを求める]※途中の設定変更ができません
+・Yesの場合（デフォルト）
+　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。
+・Noの場合
+　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。
+[学生に提出同意書の同意を求める]
+・「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます
+[追加提出]
+　学生が課題を追加提出できるか設定します
+　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります
+　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります
+・なし：学生が提出できるのは 1 回のみです
+・手動：教員の操作により、学生に追加提出させることができます
+・合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます
+[最大提出回数]
+　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
+    <rPh sb="5" eb="7">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="225" eb="226">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="465" eb="466">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="529" eb="531">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="639" eb="641">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="641" eb="643">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="643" eb="645">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="651" eb="653">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="655" eb="659">
+      <t>テイシュツカイスウ</t>
+    </rPh>
+    <rPh sb="660" eb="661">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="663" eb="665">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="666" eb="668">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="669" eb="671">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="672" eb="674">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="674" eb="675">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここでは、最大評点（満点）や合格点、評定方法等を設定します
+以下を参考に必要なパラメータの設定を行ってください
+・評点（最大評点）：最大評点を設定します
+・評定方法：評定方法を選択します
+・評定カテゴリ：評定表内のカテゴリを選択します
+・合格点：合格するために必要な最小評点を決定します
+・匿名送信：評定時に学生の個人情報が表示されません
+・学生から評定者IDを隠す：課題を評定する教員のIDが表示されず、学生が評定者を確認できません
+・採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります
+　教員が一連の評点を同じタイミングで学生すべてに公開することができます
+　・採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、
+　　個々の学生に採点者を割り振ることができます
+※[評点]の[タイプ]を[なし]にすることで、評点を設定しないこともできます</t>
+    <rPh sb="5" eb="7">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マンテン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="185" eb="187">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="207" eb="210">
+      <t>ヒョウテイシャ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下の目次から「利用制限と活動完了」を参照してください。
+■目次
+https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_2.png</t>
+  </si>
+  <si>
+    <t>subject1_3.png</t>
+  </si>
+  <si>
+    <t>subject1_5.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_6.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_7.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_8.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_9.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_10.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_11.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject1_4.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject2_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject2_2.png</t>
+  </si>
+  <si>
+    <t>subject2_3.png</t>
+  </si>
+  <si>
+    <t>subject2_4.png</t>
+  </si>
+  <si>
+    <t>subject3_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject4_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject3_2.png</t>
+  </si>
+  <si>
+    <t>subject3_3.png</t>
+  </si>
+  <si>
+    <t>subject3_4.png</t>
+  </si>
+  <si>
+    <t>subject4_2.png</t>
+  </si>
+  <si>
+    <t>subject4_3.png</t>
+  </si>
+  <si>
+    <t>subject4_4.png</t>
+  </si>
+  <si>
+    <t>以下を参考に必要なパラメータの設定を行ってください
+・利用：課題を学生に公開するか否かを選択します
+・ID ナンバー：評定計算の目的で活動を識別できます
+　評定計算に活動が含まれていない場合、空白のままにすることができます
+・グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます
+　・グループなし：グループ分けを使用しません
+　・分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます
+　・可視グループ：グループ別に活動を実施します学生は、他のグループを閲覧できます
+・グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -291,7 +777,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +834,12 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -371,7 +863,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -414,6 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -754,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -762,7 +1257,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -772,12 +1267,12 @@
     <row r="5" spans="1:2" ht="54">
       <c r="A5" s="9"/>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="94.5">
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -792,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -818,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -838,165 +1333,230 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="4"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="40.5">
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="54">
       <c r="B12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="B13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="148.5">
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.75">
+      <c r="B17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="148.5">
+      <c r="B18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.75">
+      <c r="B19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="175.5">
+      <c r="B20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="94.5">
-      <c r="B15" s="13" t="s">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="391.5">
+      <c r="B22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75">
+      <c r="B23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="B16" s="12" t="s">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" ht="310.5">
+      <c r="B24" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18.75">
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="108">
-      <c r="B17" s="13" t="s">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="135">
+      <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18.75">
+      <c r="B27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="12" t="s">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" ht="216">
+      <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="18.75">
+      <c r="B29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="108">
-      <c r="B19" s="13" t="s">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" ht="175.5">
+      <c r="B30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="18.75">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="18.75">
-      <c r="B20" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="175.5">
-      <c r="B21" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="18.75">
-      <c r="B22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" ht="189">
-      <c r="B23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="18.75">
-      <c r="B24" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" ht="54">
-      <c r="B25" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="18.75">
-      <c r="B26" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="148.5">
-      <c r="B27" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" ht="18.75">
-      <c r="B28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="135">
-      <c r="B29" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" ht="18.75">
-      <c r="B30" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="14" t="s">
-        <v>43</v>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" ht="40.5">
+      <c r="B32" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1009,6 +1569,275 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F98158D-9F10-4D6D-B455-DB2797E35368}">
   <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="104" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD2457-B8D5-4B2C-9302-FA8021AA81C3}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="19" spans="3:4" ht="18.75">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" ht="18.75">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="22" spans="3:4" ht="18.75">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="24" spans="3:4" ht="18.75">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" ht="18.75">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" ht="18.75">
+      <c r="D26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1029,12 +1858,12 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>23</v>
+      <c r="B2" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1054,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1071,257 +1900,49 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD2457-B8D5-4B2C-9302-FA8021AA81C3}">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="19" spans="3:4" ht="18.75">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="3:4" ht="18.75">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="22" spans="3:4" ht="18.75">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="24" spans="3:4" ht="18.75">
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="3:4" ht="18.75">
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="3:4" ht="18.75">
-      <c r="D26" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="4"/>

--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B28058E-B7A0-4763-BA23-C0A0BC7C7324}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CFFAE8-0D41-4F04-A635-3EC81F644DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>header1</t>
   </si>
@@ -40,9 +40,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>fresta</t>
   </si>
   <si>
@@ -59,15 +56,6 @@
   </si>
   <si>
     <t>［すべての提出を表示する］をクリックします</t>
-  </si>
-  <si>
-    <t>左上の［評定操作］ で［すべての課題をダウンロードする］を選択します</t>
-  </si>
-  <si>
-    <t>7.2（3）の評価者一覧画面の下部の「オプション」の「クイック評定」にチェックを入れます</t>
-  </si>
-  <si>
-    <t>一覧にできた評点とフィードバックの入力欄に必要事項を入力し、［すべてのクイック評定の変更を保存する］をクリックします</t>
   </si>
   <si>
     <t>評定の変更が保存された旨表示されます。［続ける］をクリックします</t>
@@ -116,10 +104,6 @@
     <t>課題を作成する</t>
   </si>
   <si>
-    <t>設定した課題の提出を確認します。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;</t>
     <rPh sb="22" eb="24">
       <t>リヨウ</t>
@@ -162,33 +146,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>評定には前節の方法以外に、7.2（3）の一覧表で評点とフィードバックを入力する方法もあります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生に通知するにチェックすると、学生にメールが送信されます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前節（3)の一覧表で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここにメールアドレスが表示されます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課題提出物を一括でダウンロードする</t>
   </si>
   <si>
     <t>一覧表から評定する：クイック評定</t>
-  </si>
-  <si>
-    <t>学生の評定を表示・入力する</t>
   </si>
   <si>
     <t>chartn</t>
@@ -732,13 +693,6 @@
     <t>subject2_3.png</t>
   </si>
   <si>
-    <t>subject2_4.png</t>
-  </si>
-  <si>
-    <t>subject3_1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>subject4_1.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -746,19 +700,10 @@
     <t>subject3_2.png</t>
   </si>
   <si>
-    <t>subject3_3.png</t>
-  </si>
-  <si>
-    <t>subject3_4.png</t>
-  </si>
-  <si>
     <t>subject4_2.png</t>
   </si>
   <si>
     <t>subject4_3.png</t>
-  </si>
-  <si>
-    <t>subject4_4.png</t>
   </si>
   <si>
     <t>以下を参考に必要なパラメータの設定を行ってください
@@ -772,12 +717,197 @@
 ・グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>subject3_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生の評点を表示・入力する</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>［評点］と必要に応じて［フィードバック］を入力し、［保存して次を表示する］をクリックします</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>画面の下部の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>オプション</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>クイック評定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にチェックを入れます
+一覧にできた評点とフィードバックの入力欄に必要事項を入力し、［すべてのクイック評定の変更を保存する］をクリックします</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイック評定を終了したいときは、[オプション]の[クイック評定]のチェックを外します</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧画面で、評定したい学生の［評点］ボタンをクリックすると、提出物の採点ページが表示されます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定した課題の提出を確認します</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上の［すべての提出をダウンロードする］を選択します</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>画面下部の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生に通知する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>にチェックすると、学生にメールが送信されます</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,6 +970,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -879,9 +1023,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -908,6 +1049,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1237,46 +1381,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>18</v>
+      <c r="B1" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" ht="54">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="94.5">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="1:2" ht="54">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="94.5">
-      <c r="B6" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="10"/>
+      <c r="B7" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1287,276 +1431,268 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="104" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4"/>
-      <c r="B7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>7</v>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="54">
+      <c r="B11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75">
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="148.5">
+      <c r="B15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="B16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="148.5">
+      <c r="B17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="18.75">
+      <c r="B18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" ht="175.5">
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="18.75">
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="2:4" ht="391.5">
+      <c r="B21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18.75">
+      <c r="B22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="310.5">
+      <c r="B23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="18.75">
+      <c r="B24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="135">
+      <c r="B25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18.75">
+      <c r="B26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" ht="216">
+      <c r="B27" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="54">
-      <c r="B12" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="B13" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="148.5">
-      <c r="B16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="18.75">
-      <c r="B17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="148.5">
-      <c r="B18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="18.75">
-      <c r="B19" s="12" t="s">
+      <c r="C27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="18.75">
+      <c r="B28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" ht="175.5">
-      <c r="B20" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75">
-      <c r="B21" s="12" t="s">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" ht="175.5">
+      <c r="B29" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="18.75">
+      <c r="B30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="391.5">
-      <c r="B22" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18.75">
-      <c r="B23" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="310.5">
-      <c r="B24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="18.75">
-      <c r="B25" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="135">
-      <c r="B26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18.75">
-      <c r="B27" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" ht="216">
-      <c r="B28" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="18.75">
-      <c r="B29" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" ht="175.5">
-      <c r="B30" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" ht="18.75">
-      <c r="B31" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" ht="40.5">
-      <c r="B32" s="14" t="s">
-        <v>52</v>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="2:4" ht="40.5">
+      <c r="B31" s="13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1568,53 +1704,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F98158D-9F10-4D6D-B455-DB2797E35368}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="104" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1627,52 +1763,41 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="18.75">
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>9</v>
+      <c r="B9" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1684,112 +1809,111 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD2457-B8D5-4B2C-9302-FA8021AA81C3}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:4">
       <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="8" t="s">
-        <v>31</v>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="59.25">
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>12</v>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="B10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="18.75">
       <c r="D11" s="1"/>
@@ -1803,30 +1927,27 @@
     <row r="14" spans="1:4" ht="18.75">
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
-      <c r="D15" s="1"/>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="19" spans="3:4" ht="18.75">
+    <row r="16" spans="1:4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="18" spans="4:4" ht="18.75">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" ht="18.75">
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="3:4" ht="18.75">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="22" spans="3:4" ht="18.75">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="24" spans="3:4" ht="18.75">
+    <row r="21" spans="4:4" ht="18.75">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="23" spans="4:4" ht="18.75">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" ht="18.75">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="3:4" ht="18.75">
+    <row r="25" spans="4:4" ht="18.75">
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="3:4" ht="18.75">
-      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1837,54 +1958,52 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="104" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="104" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" ht="14.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
@@ -1894,77 +2013,88 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="8" t="s">
-        <v>33</v>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75">
-      <c r="D14" s="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="18.75">
       <c r="D15" s="1"/>
     </row>
-    <row r="17" spans="4:4" ht="18.75">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="19" spans="4:4" ht="18.75">
-      <c r="D19" s="1"/>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="18" spans="4:4" ht="18.75">
+      <c r="D18" s="1"/>
     </row>
     <row r="20" spans="4:4" ht="18.75">
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="4:4" ht="18.75">
       <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" ht="18.75">
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CFFAE8-0D41-4F04-A635-3EC81F644DC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A6227-A397-47B8-81EF-ABFBCB1D4BD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>header1</t>
   </si>
@@ -104,13 +104,6 @@
     <t>課題を作成する</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;</t>
-    <rPh sb="22" eb="24">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,90 +168,6 @@
   </si>
   <si>
     <t>設定完了後、［保存して表示する］をクリックしてください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します
-[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります
-各パラメータの説明は以下のとおりです
-・開始日時：学生はこの日時以前に課題を提出することはできません
-・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます
-・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません
-　この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます
-・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です
-また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
-    <rPh sb="0" eb="2">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ウケツケ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シャダン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="277" eb="278">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="279" eb="281">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="282" eb="284">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="298" eb="300">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="301" eb="303">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="305" eb="309">
-      <t>カイシニチジ</t>
-    </rPh>
-    <rPh sb="310" eb="312">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="313" eb="315">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="316" eb="318">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -899,6 +808,90 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>カブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します
+[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります
+各パラメータの説明は以下のとおりです
+・開始日時：学生はこの日時以前に課題を提出することはできません
+・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます
+・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません
+　この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます
+・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です
+また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
+    <rPh sb="29" eb="31">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="306" eb="307">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="311" eb="313">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="334" eb="338">
+      <t>カイシニチジ</t>
+    </rPh>
+    <rPh sb="339" eb="341">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="342" eb="344">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="345" eb="347">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1431,9 +1424,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1489,7 +1482,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1512,187 +1505,182 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:4" ht="148.5">
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="148.5">
-      <c r="B15" s="12" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="148.5">
+      <c r="B16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.75">
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="18.75">
+      <c r="B17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="148.5">
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="175.5">
+      <c r="B18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="18.75">
+      <c r="B19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" ht="391.5">
+      <c r="B20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="310.5">
+      <c r="B22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="18.75">
-      <c r="B18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="175.5">
-      <c r="B19" s="12" t="s">
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="18.75">
+      <c r="B23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="2:4" ht="135">
+      <c r="B24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="18.75">
-      <c r="B20" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" ht="391.5">
-      <c r="B21" s="13" t="s">
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="18.75">
+      <c r="B25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="216">
+      <c r="B26" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="18.75">
+      <c r="B27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" ht="175.5">
+      <c r="B28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="18.75">
+      <c r="B29" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:4" ht="40.5">
+      <c r="B30" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="18.75">
-      <c r="B22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" ht="310.5">
-      <c r="B23" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="18.75">
-      <c r="B24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" ht="135">
-      <c r="B25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="18.75">
-      <c r="B26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="216">
-      <c r="B27" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="18.75">
-      <c r="B28" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" ht="175.5">
-      <c r="B29" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="18.75">
-      <c r="B30" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="40.5">
-      <c r="B31" s="13" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1750,7 +1738,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1772,10 +1760,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -1783,21 +1771,21 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1827,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1870,10 +1858,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
@@ -1881,21 +1869,21 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="59.25">
       <c r="B8" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
@@ -1903,15 +1891,15 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1960,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -1976,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -2019,10 +2007,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
@@ -2030,43 +2018,43 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2104,6 +2092,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2352,34 +2367,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2396,23 +2403,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A6227-A397-47B8-81EF-ABFBCB1D4BD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90754B-89E5-4CF1-91FE-41CDF4ED1124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -812,14 +812,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します
-[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります
-各パラメータの説明は以下のとおりです
-・開始日時：学生はこの日時以前に課題を提出することはできません
-・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます
-・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません
-　この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます
-・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;
+[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;
+各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;
+・開始日時：学生はこの日時以前に課題を提出することはできません&lt;br&gt;
+・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;
+・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;
+　この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;
+・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;
 また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
     <rPh sb="29" eb="31">
       <t>カダイ</t>
@@ -854,43 +854,43 @@
     <rPh sb="57" eb="59">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="64" eb="66">
+    <rPh sb="68" eb="70">
       <t>ユウコウ</t>
     </rPh>
-    <rPh sb="105" eb="106">
+    <rPh sb="113" eb="114">
       <t>カク</t>
     </rPh>
-    <rPh sb="112" eb="114">
+    <rPh sb="120" eb="122">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="115" eb="117">
+    <rPh sb="123" eb="125">
       <t>イカ</t>
     </rPh>
-    <rPh sb="306" eb="307">
+    <rPh sb="346" eb="347">
       <t>ツネ</t>
     </rPh>
-    <rPh sb="308" eb="310">
+    <rPh sb="348" eb="350">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="311" eb="313">
+    <rPh sb="351" eb="353">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="327" eb="329">
+    <rPh sb="367" eb="369">
       <t>カダイ</t>
     </rPh>
-    <rPh sb="330" eb="332">
+    <rPh sb="370" eb="372">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="334" eb="338">
+    <rPh sb="374" eb="378">
       <t>カイシニチジ</t>
     </rPh>
-    <rPh sb="339" eb="341">
+    <rPh sb="379" eb="381">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="342" eb="344">
+    <rPh sb="382" eb="384">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="345" eb="347">
+    <rPh sb="385" eb="387">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1426,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2092,33 +2092,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2367,26 +2340,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2403,4 +2384,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90754B-89E5-4CF1-91FE-41CDF4ED1124}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AE8844-D583-44D5-8901-755B08716D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -812,8 +812,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;
-[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;
 各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;
 ・開始日時：学生はこの日時以前に課題を提出することはできません&lt;br&gt;
 ・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;
@@ -854,43 +853,43 @@
     <rPh sb="57" eb="59">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="68" eb="70">
+    <rPh sb="67" eb="69">
       <t>ユウコウ</t>
     </rPh>
-    <rPh sb="113" eb="114">
+    <rPh sb="112" eb="113">
       <t>カク</t>
     </rPh>
-    <rPh sb="120" eb="122">
+    <rPh sb="119" eb="121">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="123" eb="125">
+    <rPh sb="122" eb="124">
       <t>イカ</t>
     </rPh>
-    <rPh sb="346" eb="347">
+    <rPh sb="345" eb="346">
       <t>ツネ</t>
     </rPh>
-    <rPh sb="348" eb="350">
+    <rPh sb="347" eb="349">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="351" eb="353">
+    <rPh sb="350" eb="352">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="367" eb="369">
+    <rPh sb="366" eb="368">
       <t>カダイ</t>
     </rPh>
-    <rPh sb="370" eb="372">
+    <rPh sb="369" eb="371">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="374" eb="378">
+    <rPh sb="373" eb="377">
       <t>カイシニチジ</t>
     </rPh>
-    <rPh sb="379" eb="381">
+    <rPh sb="378" eb="380">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="382" eb="384">
+    <rPh sb="381" eb="383">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="385" eb="387">
+    <rPh sb="384" eb="386">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2092,6 +2091,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2340,34 +2366,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2384,23 +2402,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AE8844-D583-44D5-8901-755B08716D1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8510A75E-67F0-4826-A70A-9A171CE0B1A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -812,14 +812,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;
-各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;
-・開始日時：学生はこの日時以前に課題を提出することはできません&lt;br&gt;
-・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;
-・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;
-　この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;
-・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;
-また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;・開始日時：学生はこの日時以前に課題を提出することはできません&lt;br&gt;・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
     <rPh sb="29" eb="31">
       <t>カダイ</t>
     </rPh>
@@ -856,40 +849,40 @@
     <rPh sb="67" eb="69">
       <t>ユウコウ</t>
     </rPh>
-    <rPh sb="112" eb="113">
+    <rPh sb="111" eb="112">
       <t>カク</t>
     </rPh>
-    <rPh sb="119" eb="121">
+    <rPh sb="118" eb="120">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="122" eb="124">
+    <rPh sb="121" eb="123">
       <t>イカ</t>
     </rPh>
-    <rPh sb="345" eb="346">
+    <rPh sb="335" eb="336">
       <t>ツネ</t>
     </rPh>
-    <rPh sb="347" eb="349">
+    <rPh sb="337" eb="339">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="350" eb="352">
+    <rPh sb="340" eb="342">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="366" eb="368">
+    <rPh sb="356" eb="358">
       <t>カダイ</t>
     </rPh>
-    <rPh sb="369" eb="371">
+    <rPh sb="359" eb="361">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="373" eb="377">
+    <rPh sb="363" eb="367">
       <t>カイシニチジ</t>
     </rPh>
-    <rPh sb="378" eb="380">
+    <rPh sb="368" eb="370">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="381" eb="383">
+    <rPh sb="371" eb="373">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="384" eb="386">
+    <rPh sb="374" eb="376">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1425,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1541,7 +1534,7 @@
     <row r="13" spans="1:4">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="148.5">
+    <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
         <v>67</v>
       </c>
@@ -2091,33 +2084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2366,26 +2332,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2402,4 +2376,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8510A75E-67F0-4826-A70A-9A171CE0B1A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D607210-6A3A-47F6-B1E4-3700AC808BBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>header1</t>
   </si>
@@ -104,14 +104,6 @@
     <t>課題を作成する</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -175,92 +167,6 @@
 このままでも課題としては動作しますが、課題の締め切りが自動的に 1 週間後になります
 また答案はファイル提出するようになります
 これらの内容を変更されたい場合は、以降の設定値の説明を参照してください</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します
-・オンラインテキスト：画面で直接テキスト入力して回答させる方法です
-※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます
-・ファイル提出：ファイル提出での回答を求めます
-※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます
-　・最大アップロードファイル数：提出可能なファイル数の上限です
-　・最大提出サイズ：アップロード可能なファイルサイズの上限です
-　・許可されるファイルタイプ：ファイルの拡張子で指定します</t>
-    <rPh sb="40" eb="42">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ゴスウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="179" eb="181">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます
-その他のパラメータについても必要なものにチェックを入れます
-[フィードバックタイプ]
-・PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます
-・オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートを
-　ダウンロードおよびアップロードできるようになります
-・フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます
-[コメントインライン]
-・コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
-    <rPh sb="64" eb="65">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="121" eb="124">
-      <t>ヒョウテイジ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>サクセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -812,7 +718,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;・開始日時：学生はこの日時以前に課題を提出することはできません&lt;br&gt;・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;・開始日時：学生はこの日時以前に課題を提出することはできません&lt;br&gt;・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
     <rPh sb="29" eb="31">
       <t>カダイ</t>
     </rPh>
@@ -846,44 +752,116 @@
     <rPh sb="57" eb="59">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="67" eb="69">
+    <rPh sb="71" eb="73">
       <t>ユウコウ</t>
     </rPh>
-    <rPh sb="111" eb="112">
+    <rPh sb="115" eb="116">
       <t>カク</t>
     </rPh>
-    <rPh sb="118" eb="120">
+    <rPh sb="122" eb="124">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="121" eb="123">
+    <rPh sb="125" eb="127">
       <t>イカ</t>
     </rPh>
-    <rPh sb="335" eb="336">
+    <rPh sb="339" eb="340">
       <t>ツネ</t>
     </rPh>
-    <rPh sb="337" eb="339">
+    <rPh sb="341" eb="343">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="340" eb="342">
+    <rPh sb="344" eb="346">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="356" eb="358">
+    <rPh sb="360" eb="362">
       <t>カダイ</t>
     </rPh>
-    <rPh sb="359" eb="361">
+    <rPh sb="363" eb="365">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="363" eb="367">
+    <rPh sb="367" eb="371">
       <t>カイシニチジ</t>
     </rPh>
-    <rPh sb="368" eb="370">
+    <rPh sb="372" eb="374">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="371" eb="373">
+    <rPh sb="375" eb="377">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="374" eb="376">
+    <rPh sb="378" eb="380">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;&lt;br&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;br&gt;・オンラインテキスト：画面で直接テキスト入力して回答させる方法です
+※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;br&gt;・ファイル提出：ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;　・最大アップロードファイル数：提出可能なファイル数の上限です&lt;br&gt;　・最大提出サイズ：アップロード可能なファイルサイズの上限です&lt;br&gt;　・許可されるファイルタイプ：ファイルの拡張子で指定します</t>
+    <rPh sb="77" eb="79">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ゴスウ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="231" eb="233">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;&lt;br&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;br&gt;[フィードバックタイプ]&lt;br&gt;・PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;・オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;・フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;br&gt;[コメントインライン]&lt;br&gt;・コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
+    <rPh sb="116" eb="117">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="171" eb="173">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="182" eb="185">
+      <t>ヒョウテイジ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1418,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1474,7 +1452,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1497,38 +1475,38 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1536,143 +1514,139 @@
     </row>
     <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
-      <c r="B15" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="11"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="148.5">
+    <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75">
-      <c r="B17" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="11"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="175.5">
+    <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.75">
       <c r="B19" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="391.5">
       <c r="B20" s="13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75">
       <c r="B21" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="310.5">
       <c r="B22" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75">
       <c r="B23" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="135">
       <c r="B24" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="18.75">
       <c r="B25" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="216">
       <c r="B26" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18.75">
       <c r="B27" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="2:4" ht="175.5">
       <c r="B28" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="18.75">
       <c r="B29" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" ht="40.5">
       <c r="B30" s="13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1730,7 +1704,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1752,10 +1726,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -1763,21 +1737,21 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1807,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1850,10 +1824,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
@@ -1861,21 +1835,21 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="59.25">
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
@@ -1883,15 +1857,15 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1956,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1999,10 +1973,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
@@ -2010,43 +1984,43 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2084,6 +2058,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2332,34 +2333,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2376,23 +2369,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D607210-6A3A-47F6-B1E4-3700AC808BBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D2DE6-AF4C-41DA-9E36-09F891A2A420}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
   <si>
     <t>header1</t>
   </si>
@@ -104,33 +104,6 @@
     <t>課題を作成する</t>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="limit"&gt;&lt;/a&gt;利用制限と活動完了&lt;/h3&gt;</t>
-    <rPh sb="29" eb="33">
-      <t>カツドウカンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>課題提出物を一括でダウンロードする</t>
   </si>
   <si>
@@ -170,296 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします
-グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります
-どのグループにも登録されていない学生はデフォルトグループに登録されます
-※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください
-必要に応じて、次のパラメータの[Yes][No]を選択します
-・提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます
-ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます
-・グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります
-ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。
-・学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します
-予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります
-また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
-    <rPh sb="4" eb="6">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="233" eb="235">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="236" eb="237">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="258" eb="260">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生が課題を提出すると教員にメッセージ通知が送信されるように設定したい場合は、[評定者に提出を通知する]をYesにします
-また、学生の課題提出の遅延についての教員へのメッセージ通知が必要な場合、[提出遅延者に関して評定者に通知する]をYesにします
-その他のパラメータの説明は以下のとおりです。
-・「学生に通知する」のデフォルト設定：それぞれの学生の評定を行う際、「学生に通知する」チェックボックスをデフォルトでONにしたい場合は、Yesにします
-　</t>
-    <rPh sb="30" eb="32">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="140" eb="142">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="182" eb="183">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します。
-[学生に提出ボタンのクリックを求める]※途中の設定変更ができません
-・Yesの場合（デフォルト）
-　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。
-・Noの場合
-　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。
-[学生に提出同意書の同意を求める]
-・「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます
-[追加提出]
-　学生が課題を追加提出できるか設定します
-　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります
-　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります
-・なし：学生が提出できるのは 1 回のみです
-・手動：教員の操作により、学生に追加提出させることができます
-・合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます
-[最大提出回数]
-　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
-    <rPh sb="5" eb="7">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>サイテイシュツ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="203" eb="205">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="225" eb="226">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="465" eb="466">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="529" eb="531">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="639" eb="641">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="641" eb="643">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="643" eb="645">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="651" eb="653">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="655" eb="659">
-      <t>テイシュツカイスウ</t>
-    </rPh>
-    <rPh sb="660" eb="661">
-      <t>タッ</t>
-    </rPh>
-    <rPh sb="663" eb="665">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="666" eb="668">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="669" eb="671">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="672" eb="674">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="674" eb="675">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここでは、最大評点（満点）や合格点、評定方法等を設定します
-以下を参考に必要なパラメータの設定を行ってください
-・評点（最大評点）：最大評点を設定します
-・評定方法：評定方法を選択します
-・評定カテゴリ：評定表内のカテゴリを選択します
-・合格点：合格するために必要な最小評点を決定します
-・匿名送信：評定時に学生の個人情報が表示されません
-・学生から評定者IDを隠す：課題を評定する教員のIDが表示されず、学生が評定者を確認できません
-・採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります
-　教員が一連の評点を同じタイミングで学生すべてに公開することができます
-　・採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、
-　　個々の学生に採点者を割り振ることができます
-※[評点]の[タイプ]を[なし]にすることで、評点を設定しないこともできます</t>
-    <rPh sb="5" eb="7">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>マンテン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ゴウカクテン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="146" eb="148">
-      <t>トクメイ</t>
-    </rPh>
-    <rPh sb="148" eb="150">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="185" eb="187">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="188" eb="190">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="198" eb="200">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="207" eb="210">
-      <t>ヒョウテイシャ</t>
-    </rPh>
-    <rPh sb="211" eb="213">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下の目次から「利用制限と活動完了」を参照してください。
-■目次
-https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モクジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>モクジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>subject1_2.png</t>
   </si>
   <si>
@@ -519,18 +202,6 @@
   </si>
   <si>
     <t>subject4_3.png</t>
-  </si>
-  <si>
-    <t>以下を参考に必要なパラメータの設定を行ってください
-・利用：課題を学生に公開するか否かを選択します
-・ID ナンバー：評定計算の目的で活動を識別できます
-　評定計算に活動が含まれていない場合、空白のままにすることができます
-・グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます
-　・グループなし：グループ分けを使用しません
-　・分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます
-　・可視グループ：グループ別に活動を実施します学生は、他のグループを閲覧できます
-・グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>subject3_1.png</t>
@@ -794,74 +465,308 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;&lt;br&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;br&gt;・オンラインテキスト：画面で直接テキスト入力して回答させる方法です
-※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;br&gt;・ファイル提出：ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;　・最大アップロードファイル数：提出可能なファイル数の上限です&lt;br&gt;　・最大提出サイズ：アップロード可能なファイルサイズの上限です&lt;br&gt;　・許可されるファイルタイプ：ファイルの拡張子で指定します</t>
-    <rPh sb="77" eb="79">
+    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;br&gt;・オンラインテキスト：画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;br&gt;・ファイル提出：ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;　・最大アップロードファイル数：提出可能なファイル数の上限です&lt;br&gt;　・最大提出サイズ：アップロード可能なファイルサイズの上限です&lt;br&gt;　・許可されるファイルタイプ：ファイルの拡張子で指定します</t>
+    <rPh sb="73" eb="75">
       <t>シテイ</t>
     </rPh>
+    <rPh sb="134" eb="136">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>ゴスウ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="239" eb="240">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="249" eb="251">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;br&gt;[フィードバックタイプ]&lt;br&gt;・PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;・オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;・フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;br&gt;[コメントインライン]&lt;br&gt;・コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
+    <rPh sb="112" eb="113">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="178" eb="181">
+      <t>ヒョウテイジ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;br&gt;[学生に提出ボタンのクリックを求める]※途中の設定変更ができません&lt;br&gt;・Yesの場合（デフォルト）&lt;br&gt;　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;・Noの場合&lt;br&gt;　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;br&gt;[学生に提出同意書の同意を求める]&lt;br&gt;・「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;br&gt;[追加提出]&lt;br&gt;　学生が課題を追加提出できるか設定します&lt;br&gt;　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;・なし：学生が提出できるのは 1 回のみです&lt;br&gt;・手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;・合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;br&gt;[最大提出回数]&lt;br&gt;　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
+    <rPh sb="40" eb="42">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="541" eb="542">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="605" eb="607">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="737" eb="739">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="744" eb="746">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="752" eb="754">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="756" eb="760">
+      <t>テイシュツカイスウ</t>
+    </rPh>
+    <rPh sb="761" eb="762">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="764" eb="766">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="767" eb="769">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="770" eb="772">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="773" eb="775">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="775" eb="776">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします&lt;br&gt;&lt;br&gt;グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります&lt;br&gt;どのグループにも登録されていない学生はデフォルトグループに登録されます&lt;br&gt;&lt;br&gt;※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください&lt;br&gt;必要に応じて、次のパラメータの[Yes][No]を選択します&lt;br&gt;&lt;br&gt;・提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます&lt;br&gt;ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます&lt;br&gt;&lt;br&gt;・グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります&lt;br&gt;
+ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。&lt;br&gt;&lt;br&gt;・学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します&lt;br&gt;予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります&lt;br&gt;また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
+    <rPh sb="41" eb="43">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="290" eb="291">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;&lt;br&gt;学生が課題を提出すると教員にメッセージ通知が送信されるように設定したい場合は、[評定者に提出を通知する]をYesにします&lt;br&gt;&lt;br&gt;また、学生の課題提出の遅延についての教員へのメッセージ通知が必要な場合、[提出遅延者に関して評定者に通知する]をYesにします&lt;br&gt;&lt;br&gt;その他のパラメータの説明は以下のとおりです。&lt;br&gt;・「学生に通知する」のデフォルト設定：それぞれの学生の評定を行う際、「学生に通知する」チェックボックスをデフォルトでONにしたい場合は、Yesにします</t>
+    <rPh sb="104" eb="106">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="154" eb="156">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="175" eb="177">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="257" eb="259">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="263" eb="264">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="265" eb="266">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;ここでは、最大評点（満点）や合格点、評定方法等を設定します&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;br&gt;・評点（最大評点）：最大評点を設定します&lt;br&gt;・評定方法：評定方法を選択します&lt;br&gt;・評定カテゴリ：評定表内のカテゴリを選択します&lt;br&gt;・合格点：合格するために必要な最小評点を決定します&lt;br&gt;・匿名送信：評定時に学生の個人情報が表示されません&lt;br&gt;・学生から評定者IDを隠す：課題を評定する教員のIDが表示されず、学生が評定者を確認できません&lt;br&gt;・採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります&lt;br&gt;　教員が一連の評点を同じタイミングで学生すべてに公開することができます&lt;br&gt;&lt;br&gt;　・採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます&lt;br&gt;&lt;br&gt;※[評点]の[タイプ]を[なし]にすることで、評点を設定しないこともできます</t>
+    <rPh sb="70" eb="72">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>マンテン</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>オコナ</t>
+    </rPh>
     <rPh sb="135" eb="137">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="139" eb="141">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="143" eb="145">
-      <t>ゴスウ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="231" eb="233">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="240" eb="241">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="250" eb="252">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;&lt;br&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;br&gt;[フィードバックタイプ]&lt;br&gt;・PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;・オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;・フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;br&gt;[コメントインライン]&lt;br&gt;・コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
-    <rPh sb="116" eb="117">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="128" eb="130">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="278" eb="280">
       <t>カダイ</t>
     </rPh>
-    <rPh sb="179" eb="181">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="182" eb="185">
-      <t>ヒョウテイジ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="188" eb="189">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>サクセイ</t>
+    <rPh sb="281" eb="283">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="285" eb="287">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="291" eb="293">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="300" eb="303">
+      <t>ヒョウテイシャ</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;・利用：課題を学生に公開するか否かを選択します&lt;br&gt;・ID ナンバー：評定計算の目的で活動を識別できます&lt;br&gt;　評定計算に活動が含まれていない場合、空白のままにすることができます&lt;br&gt;・グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます&lt;br&gt;　・グループなし：グループ分けを使用しません&lt;br&gt;　・分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます&lt;br&gt;　・可視グループ：グループ別に活動を実施します学生は、他のグループを閲覧できます&lt;br&gt;&lt;br&gt;・グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="limit"&gt;&lt;/a&gt;利用制限と活動完了&lt;/h3&gt;以下の目次から「利用制限と活動完了」を参照してください。&lt;br&gt;■目次&lt;br&gt;https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top</t>
+    <rPh sb="38" eb="40">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モクジ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>モクジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1394,10 +1299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1452,7 +1357,7 @@
     <row r="6" spans="1:4">
       <c r="A6" s="4"/>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -1475,38 +1380,38 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="54">
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="18.75">
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1514,13 +1419,13 @@
     </row>
     <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
@@ -1529,13 +1434,13 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="18.75">
@@ -1544,109 +1449,94 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="18.75">
-      <c r="B19" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B19" s="11"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="391.5">
+    <row r="20" spans="2:4" ht="202.5">
       <c r="B20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="18.75">
+      <c r="B21" s="11"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="175.5">
+      <c r="B22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="67.5">
+      <c r="B23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="18.75">
+      <c r="B24" s="11"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="121.5">
+      <c r="B25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="18.75">
+      <c r="B26" s="11"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="2:4" ht="108">
+      <c r="B27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="18.75">
-      <c r="B21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="310.5">
-      <c r="B22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="18.75">
-      <c r="B23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" ht="135">
-      <c r="B24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="18.75">
-      <c r="B25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" ht="216">
-      <c r="B26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="18.75">
-      <c r="B27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" ht="175.5">
-      <c r="B28" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="18.75">
-      <c r="B29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" ht="40.5">
-      <c r="B30" s="13" t="s">
-        <v>35</v>
+    </row>
+    <row r="28" spans="2:4" ht="18.75">
+      <c r="B28" s="13"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="2:4" ht="27">
+      <c r="B29" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1704,7 +1594,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1726,10 +1616,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
@@ -1737,21 +1627,21 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1824,10 +1714,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
@@ -1835,21 +1725,21 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="59.25">
       <c r="B8" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
@@ -1857,15 +1747,15 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1914,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1930,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -1973,10 +1863,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
@@ -1984,43 +1874,43 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
@@ -2058,33 +1948,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2333,26 +2196,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2369,4 +2240,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\編集中\00guide_dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015D2DE6-AF4C-41DA-9E36-09F891A2A420}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{112AFBCC-041B-4E1C-938C-AD21920ECC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="p4" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -389,82 +390,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;・開始日時：学生はこの日時以前に課題を提出することはできません&lt;br&gt;・終了日時：この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;・遮断日時：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;・次の日時まで私に評定を思い出させる：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
-    <rPh sb="29" eb="31">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>カイシビ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ウケツケ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シャダン</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="339" eb="340">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="341" eb="343">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="344" eb="346">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="360" eb="362">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="363" eb="365">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="367" eb="371">
-      <t>カイシニチジ</t>
-    </rPh>
-    <rPh sb="372" eb="374">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="375" eb="377">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="378" eb="380">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;br&gt;・オンラインテキスト：画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;br&gt;・ファイル提出：ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;　・最大アップロードファイル数：提出可能なファイル数の上限です&lt;br&gt;　・最大提出サイズ：アップロード可能なファイルサイズの上限です&lt;br&gt;　・許可されるファイルタイプ：ファイルの拡張子で指定します</t>
     <rPh sb="73" eb="75">
       <t>シテイ</t>
@@ -679,10 +604,7 @@
       <t>オコナ</t>
     </rPh>
     <rPh sb="265" eb="266">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>バアイ</t>
+      <t>サイバアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -767,6 +689,82 @@
     </rPh>
     <rPh sb="71" eb="73">
       <t>モクジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;&lt;h4&gt;開始日時&lt;/h4&gt;学生はこの日時以前に課題を提出することはできません&lt;br&gt;&lt;h4&gt;終了日時&lt;/h4&gt;この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;&lt;h4&gt;遮断日時&lt;/h4&gt;：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;&lt;h4&gt;次の日時まで私に評定を思い出させる&lt;/h4&gt;：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
+    <rPh sb="29" eb="31">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ウケツケ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シャダン</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="369" eb="370">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="371" eb="373">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="374" eb="376">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="390" eb="392">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="393" eb="395">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="397" eb="401">
+      <t>カイシニチジ</t>
+    </rPh>
+    <rPh sb="402" eb="404">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="405" eb="407">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="408" eb="410">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1301,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1417,9 +1415,9 @@
     <row r="13" spans="1:4">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="94.5">
+    <row r="14" spans="1:4" ht="108">
       <c r="B14" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -1434,7 +1432,7 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1449,7 +1447,7 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1464,7 +1462,7 @@
     </row>
     <row r="20" spans="2:4" ht="202.5">
       <c r="B20" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1479,7 +1477,7 @@
     </row>
     <row r="22" spans="2:4" ht="175.5">
       <c r="B22" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1490,7 +1488,7 @@
     </row>
     <row r="23" spans="2:4" ht="67.5">
       <c r="B23" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1505,7 +1503,7 @@
     </row>
     <row r="25" spans="2:4" ht="121.5">
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
@@ -1520,7 +1518,7 @@
     </row>
     <row r="27" spans="2:4" ht="108">
       <c r="B27" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -1536,7 +1534,7 @@
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +1802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1948,6 +1946,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2196,34 +2221,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2240,23 +2257,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{112AFBCC-041B-4E1C-938C-AD21920ECC8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C412DC-8897-4E5D-B742-C08CD286A90D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="p4" sheetId="20" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -390,40 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;br&gt;・オンラインテキスト：画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;br&gt;・ファイル提出：ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;　・最大アップロードファイル数：提出可能なファイル数の上限です&lt;br&gt;　・最大提出サイズ：アップロード可能なファイルサイズの上限です&lt;br&gt;　・許可されるファイルタイプ：ファイルの拡張子で指定します</t>
-    <rPh sb="73" eb="75">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="142" eb="144">
-      <t>ゴスウ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="230" eb="232">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="239" eb="240">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="249" eb="251">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;br&gt;[フィードバックタイプ]&lt;br&gt;・PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;・オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;・フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;br&gt;[コメントインライン]&lt;br&gt;・コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
     <rPh sb="112" eb="113">
       <t>タ</t>
@@ -693,7 +658,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;br&gt;&lt;h4&gt;開始日時&lt;/h4&gt;学生はこの日時以前に課題を提出することはできません&lt;br&gt;&lt;h4&gt;終了日時&lt;/h4&gt;この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;&lt;h4&gt;遮断日時&lt;/h4&gt;：設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;&lt;h4&gt;次の日時まで私に評定を思い出させる&lt;/h4&gt;：課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
+    <t>&lt;h3&gt;&lt;a name="use"&gt;&lt;/a&gt;利用&lt;/h3&gt;課題の提出開始日や、課題の受付遮断日を指定したい場合等に設定します&lt;br&gt;[有効にする]のチェックボックスにチェックした場合のみ、日時の指定が有効になります&lt;br&gt;各パラメータの説明は以下のとおりです&lt;br&gt;&lt;h4&gt;開始日時&lt;/h4&gt;学生はこの日時以前に課題を提出することはできません&lt;br&gt;&lt;h4&gt;終了日時&lt;/h4&gt;この日時以降に提出された課題は「提出遅延」とマークされます&lt;br&gt;&lt;h4&gt;遮断日時&lt;/h4&gt;設定した場合、この日時以降は課題の提出を受け付けません&lt;br&gt;この日時前であれば、学生は提出物の差し替え、追加、削除を行うことができます&lt;br&gt;&lt;h4&gt;次の日時まで私に評定を思い出させる&lt;/h4&gt;課題の評定を完了させる日時です&lt;br&gt;&lt;br&gt;また、「常に説明を表示する」をOFFにしていると、課題の説明が「開始日時」以降に学生に表示されます</t>
     <rPh sb="29" eb="31">
       <t>カダイ</t>
     </rPh>
@@ -727,44 +692,78 @@
     <rPh sb="57" eb="59">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="71" eb="73">
+    <rPh sb="67" eb="69">
       <t>ユウコウ</t>
     </rPh>
-    <rPh sb="115" eb="116">
+    <rPh sb="111" eb="112">
       <t>カク</t>
     </rPh>
-    <rPh sb="122" eb="124">
+    <rPh sb="118" eb="120">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="125" eb="127">
+    <rPh sb="121" eb="123">
       <t>イカ</t>
     </rPh>
-    <rPh sb="369" eb="370">
+    <rPh sb="359" eb="360">
       <t>ツネ</t>
     </rPh>
-    <rPh sb="371" eb="373">
+    <rPh sb="361" eb="363">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="374" eb="376">
+    <rPh sb="364" eb="366">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="390" eb="392">
+    <rPh sb="380" eb="382">
       <t>カダイ</t>
     </rPh>
-    <rPh sb="393" eb="395">
+    <rPh sb="383" eb="385">
       <t>セツメイ</t>
     </rPh>
-    <rPh sb="397" eb="401">
+    <rPh sb="387" eb="391">
       <t>カイシニチジ</t>
     </rPh>
-    <rPh sb="402" eb="404">
+    <rPh sb="392" eb="394">
       <t>イコウ</t>
     </rPh>
-    <rPh sb="405" eb="407">
+    <rPh sb="395" eb="397">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="408" eb="410">
+    <rPh sb="398" eb="400">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;br&gt;&lt;h4&gt;オンラインテキスト&lt;/h4&gt;画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;ファイル提出&lt;/h4&gt;ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;&lt;h5&gt;最大アップロードファイル数&lt;/h5&gt;提出可能なファイル数の上限です&lt;br&gt;&lt;h5&gt;最大提出サイズ&lt;/h5&gt;アップロード可能なファイルサイズの上限です&lt;br&gt;&lt;h5&gt;許可されるファイルタイプ&lt;/h5&gt;ファイルの拡張子で指定します</t>
+    <rPh sb="73" eb="75">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ゴスウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1299,7 +1298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1415,9 +1414,9 @@
     <row r="13" spans="1:4">
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:4" ht="108">
+    <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -1432,7 +1431,7 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1447,7 +1446,7 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1462,7 +1461,7 @@
     </row>
     <row r="20" spans="2:4" ht="202.5">
       <c r="B20" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1477,7 +1476,7 @@
     </row>
     <row r="22" spans="2:4" ht="175.5">
       <c r="B22" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1488,7 +1487,7 @@
     </row>
     <row r="23" spans="2:4" ht="67.5">
       <c r="B23" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1503,7 +1502,7 @@
     </row>
     <row r="25" spans="2:4" ht="121.5">
       <c r="B25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
@@ -1518,7 +1517,7 @@
     </row>
     <row r="27" spans="2:4" ht="108">
       <c r="B27" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -1534,7 +1533,7 @@
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1946,33 +1945,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2221,26 +2193,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2257,4 +2237,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C412DC-8897-4E5D-B742-C08CD286A90D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D9867D-3777-436D-9DEE-4D5EFAF0F724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -389,116 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;br&gt;[フィードバックタイプ]&lt;br&gt;・PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;・オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;・フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;br&gt;[コメントインライン]&lt;br&gt;・コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
-    <rPh sb="112" eb="113">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="173" eb="175">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="178" eb="181">
-      <t>ヒョウテイジ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="191" eb="193">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;br&gt;[学生に提出ボタンのクリックを求める]※途中の設定変更ができません&lt;br&gt;・Yesの場合（デフォルト）&lt;br&gt;　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;・Noの場合&lt;br&gt;　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;br&gt;[学生に提出同意書の同意を求める]&lt;br&gt;・「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;br&gt;[追加提出]&lt;br&gt;　学生が課題を追加提出できるか設定します&lt;br&gt;　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;・なし：学生が提出できるのは 1 回のみです&lt;br&gt;・手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;・合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;br&gt;[最大提出回数]&lt;br&gt;　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
-    <rPh sb="40" eb="42">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>サイテイシュツ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="252" eb="254">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="277" eb="278">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="541" eb="542">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="605" eb="607">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="737" eb="739">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="744" eb="746">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="752" eb="754">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="756" eb="760">
-      <t>テイシュツカイスウ</t>
-    </rPh>
-    <rPh sb="761" eb="762">
-      <t>タッ</t>
-    </rPh>
-    <rPh sb="764" eb="766">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="767" eb="769">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="770" eb="772">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="773" eb="775">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="775" eb="776">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします&lt;br&gt;&lt;br&gt;グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります&lt;br&gt;どのグループにも登録されていない学生はデフォルトグループに登録されます&lt;br&gt;&lt;br&gt;※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください&lt;br&gt;必要に応じて、次のパラメータの[Yes][No]を選択します&lt;br&gt;&lt;br&gt;・提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます&lt;br&gt;ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます&lt;br&gt;&lt;br&gt;・グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります&lt;br&gt;
 ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。&lt;br&gt;&lt;br&gt;・学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します&lt;br&gt;予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります&lt;br&gt;また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
     <rPh sb="41" eb="43">
@@ -734,36 +624,146 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;br&gt;&lt;h4&gt;オンラインテキスト&lt;/h4&gt;画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;ファイル提出&lt;/h4&gt;ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;&lt;h5&gt;最大アップロードファイル数&lt;/h5&gt;提出可能なファイル数の上限です&lt;br&gt;&lt;h5&gt;最大提出サイズ&lt;/h5&gt;アップロード可能なファイルサイズの上限です&lt;br&gt;&lt;h5&gt;許可されるファイルタイプ&lt;/h5&gt;ファイルの拡張子で指定します</t>
+    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;h4&gt;オンラインテキスト&lt;/h4&gt;画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;h4&gt;ファイル提出&lt;/h4&gt;ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;最大アップロードファイル数&lt;/h4&gt;提出可能なファイル数の上限です&lt;br&gt;&lt;h4&gt;最大提出サイズ&lt;/h4&gt;アップロード可能なファイルサイズの上限です&lt;br&gt;&lt;h4&gt;許可されるファイルタイプ&lt;/h4&gt;ファイルの拡張子で指定します</t>
     <rPh sb="73" eb="75">
       <t>シテイ</t>
     </rPh>
+    <rPh sb="137" eb="139">
+      <t>センタク</t>
+    </rPh>
     <rPh sb="141" eb="143">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ゴスウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="227" eb="228">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;h4&gt;フィードバックタイプ&lt;/h4&gt;■PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;■オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;■フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;h4&gt;コメントインライン&lt;/h4&gt;■コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
+    <rPh sb="112" eb="113">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="177" eb="180">
+      <t>ヒョウテイジ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;h4&gt;学生に提出ボタンのクリックを求める&lt;/h4&gt;※途中の設定変更ができません&lt;br&gt;■Yesの場合（デフォルト）&lt;br&gt;　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;■Noの場合&lt;br&gt;　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;h4&gt;学生に提出同意書の同意を求める&lt;/h4&gt;■「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;h4&gt;[追加提出]&lt;/h4&gt;　学生が課題を追加提出できるか設定します&lt;br&gt;　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;■なし：学生が提出できるのは 1 回のみです&lt;br&gt;■手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;■合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;h4&gt;[最大提出回数]&lt;/h4&gt;　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
+    <rPh sb="40" eb="42">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="71" eb="73">
       <t>センタク</t>
     </rPh>
-    <rPh sb="145" eb="147">
+    <rPh sb="255" eb="257">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="149" eb="151">
-      <t>ゴスウ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="235" eb="236">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
+    <rPh sb="280" eb="281">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="544" eb="545">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="608" eb="610">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="740" eb="742">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="748" eb="750">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="756" eb="758">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="760" eb="764">
+      <t>テイシュツカイスウ</t>
+    </rPh>
+    <rPh sb="765" eb="766">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="768" eb="770">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="771" eb="773">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="774" eb="776">
       <t>テイシュツ</t>
     </rPh>
-    <rPh sb="253" eb="254">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>シテイ</t>
+    <rPh sb="777" eb="779">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="779" eb="780">
+      <t>ヒラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1298,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="20" spans="2:4" ht="202.5">
       <c r="B20" s="13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="22" spans="2:4" ht="175.5">
       <c r="B22" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="23" spans="2:4" ht="67.5">
       <c r="B23" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="25" spans="2:4" ht="121.5">
       <c r="B25" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="27" spans="2:4" ht="108">
       <c r="B27" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1945,6 +1945,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2193,34 +2220,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2237,23 +2256,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D9867D-3777-436D-9DEE-4D5EFAF0F724}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C5AAC-C98B-4426-8BA1-4393CA3C33E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -389,81 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします&lt;br&gt;&lt;br&gt;グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります&lt;br&gt;どのグループにも登録されていない学生はデフォルトグループに登録されます&lt;br&gt;&lt;br&gt;※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください&lt;br&gt;必要に応じて、次のパラメータの[Yes][No]を選択します&lt;br&gt;&lt;br&gt;・提出にグループを必要とする：グループに所属している学生にのみ提出を許可するかどうかを決めます&lt;br&gt;ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます&lt;br&gt;&lt;br&gt;・グループメンバーすべての提出を必要とする：[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります&lt;br&gt;
-ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。&lt;br&gt;&lt;br&gt;・学生グループのグルーピング：コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します&lt;br&gt;予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります&lt;br&gt;また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
-    <rPh sb="41" eb="43">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="290" eb="291">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="294" eb="295">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="312" eb="314">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;&lt;br&gt;学生が課題を提出すると教員にメッセージ通知が送信されるように設定したい場合は、[評定者に提出を通知する]をYesにします&lt;br&gt;&lt;br&gt;また、学生の課題提出の遅延についての教員へのメッセージ通知が必要な場合、[提出遅延者に関して評定者に通知する]をYesにします&lt;br&gt;&lt;br&gt;その他のパラメータの説明は以下のとおりです。&lt;br&gt;・「学生に通知する」のデフォルト設定：それぞれの学生の評定を行う際、「学生に通知する」チェックボックスをデフォルトでONにしたい場合は、Yesにします</t>
-    <rPh sb="104" eb="106">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ツウチ</t>
-    </rPh>
-    <rPh sb="175" eb="177">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="220" eb="222">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="257" eb="259">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="260" eb="262">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="263" eb="264">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="265" eb="266">
-      <t>サイバアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;ここでは、最大評点（満点）や合格点、評定方法等を設定します&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;br&gt;・評点（最大評点）：最大評点を設定します&lt;br&gt;・評定方法：評定方法を選択します&lt;br&gt;・評定カテゴリ：評定表内のカテゴリを選択します&lt;br&gt;・合格点：合格するために必要な最小評点を決定します&lt;br&gt;・匿名送信：評定時に学生の個人情報が表示されません&lt;br&gt;・学生から評定者IDを隠す：課題を評定する教員のIDが表示されず、学生が評定者を確認できません&lt;br&gt;・採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります&lt;br&gt;　教員が一連の評点を同じタイミングで学生すべてに公開することができます&lt;br&gt;&lt;br&gt;　・採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます&lt;br&gt;&lt;br&gt;※[評点]の[タイプ]を[なし]にすることで、評点を設定しないこともできます</t>
     <rPh sb="70" eb="72">
       <t>サイダイ</t>
@@ -624,40 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;[提出タイプ]にて課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;&lt;h4&gt;オンラインテキスト&lt;/h4&gt;画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;&lt;h4&gt;ファイル提出&lt;/h4&gt;ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;最大アップロードファイル数&lt;/h4&gt;提出可能なファイル数の上限です&lt;br&gt;&lt;h4&gt;最大提出サイズ&lt;/h4&gt;アップロード可能なファイルサイズの上限です&lt;br&gt;&lt;h4&gt;許可されるファイルタイプ&lt;/h4&gt;ファイルの拡張子で指定します</t>
-    <rPh sb="73" eb="75">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="137" eb="139">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ゴスウ</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="227" eb="228">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="245" eb="246">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="255" eb="257">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;h4&gt;フィードバックタイプ&lt;/h4&gt;■PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;■オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;■フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;h4&gt;コメントインライン&lt;/h4&gt;■コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
     <rPh sb="112" eb="113">
       <t>タ</t>
@@ -695,7 +586,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;h4&gt;学生に提出ボタンのクリックを求める&lt;/h4&gt;※途中の設定変更ができません&lt;br&gt;■Yesの場合（デフォルト）&lt;br&gt;　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;■Noの場合&lt;br&gt;　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;h4&gt;学生に提出同意書の同意を求める&lt;/h4&gt;■「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;h4&gt;[追加提出]&lt;/h4&gt;　学生が課題を追加提出できるか設定します&lt;br&gt;　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;■なし：学生が提出できるのは 1 回のみです&lt;br&gt;■手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;■合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;h4&gt;[最大提出回数]&lt;/h4&gt;　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
+    <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;&lt;h4&gt;提出タイプ&lt;/h4&gt;課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;■オンラインテキスト&lt;br&gt;画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;■ファイル提出&lt;br&gt;ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;最大アップロードファイル数&lt;/h4&gt;提出可能なファイル数の上限です&lt;br&gt;&lt;h4&gt;最大提出サイズ&lt;/h4&gt;アップロード可能なファイルサイズの上限です&lt;br&gt;&lt;h4&gt;許可されるファイルタイプ&lt;/h4&gt;ファイルの拡張子で指定します</t>
+    <rPh sb="78" eb="80">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="146" eb="148">
+      <t>ゴスウ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="178" eb="180">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="233" eb="235">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="242" eb="243">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="252" eb="254">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;h4&gt;学生に提出ボタンのクリックを求める&lt;/h4&gt;※途中の設定変更ができません&lt;br&gt;■Yesの場合（デフォルト）&lt;br&gt;　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;■Noの場合&lt;br&gt;　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;h4&gt;学生に提出同意書の同意を求める&lt;/h4&gt;　「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;h4&gt;追加提出&lt;/h4&gt;　学生が課題を追加提出できるか設定します&lt;br&gt;　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;■なし：学生が提出できるのは 1 回のみです&lt;br&gt;■手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;■合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;h4&gt;最大提出回数&lt;/h4&gt;　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
     <rPh sb="40" eb="42">
       <t>ガクセイ</t>
     </rPh>
@@ -729,41 +654,104 @@
     <rPh sb="280" eb="281">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="544" eb="545">
+    <rPh sb="542" eb="543">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="608" eb="610">
+    <rPh sb="606" eb="608">
       <t>ヒツヨウ</t>
     </rPh>
-    <rPh sb="740" eb="742">
+    <rPh sb="737" eb="739">
       <t>サイダイ</t>
     </rPh>
-    <rPh sb="748" eb="750">
+    <rPh sb="744" eb="746">
       <t>カイスウ</t>
     </rPh>
-    <rPh sb="756" eb="758">
+    <rPh sb="752" eb="754">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="760" eb="764">
+    <rPh sb="756" eb="760">
       <t>テイシュツカイスウ</t>
     </rPh>
-    <rPh sb="765" eb="766">
+    <rPh sb="761" eb="762">
       <t>タッ</t>
     </rPh>
-    <rPh sb="768" eb="770">
+    <rPh sb="764" eb="766">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="771" eb="773">
+    <rPh sb="767" eb="769">
       <t>ガクセイ</t>
     </rPh>
-    <rPh sb="774" eb="776">
+    <rPh sb="770" eb="772">
       <t>テイシュツ</t>
     </rPh>
-    <rPh sb="777" eb="779">
+    <rPh sb="773" eb="775">
       <t>サイド</t>
     </rPh>
-    <rPh sb="779" eb="780">
+    <rPh sb="775" eb="776">
       <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします&lt;br&gt;&lt;br&gt;グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります&lt;br&gt;どのグループにも登録されていない学生はデフォルトグループに登録されます&lt;br&gt;&lt;br&gt;※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください&lt;br&gt;必要に応じて、次のパラメータの[Yes][No]を選択します&lt;br&gt;&lt;br&gt;&lt;h4&gt;提出にグループを必要とする&lt;/h4&gt;グループに所属している学生にのみ提出を許可するかどうかを決めます&lt;br&gt;ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グループメンバーすべての提出を必要とする&lt;/h4&gt;[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります&lt;br&gt;
+ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。&lt;br&gt;&lt;br&gt;&lt;h4&gt;学生グループのグルーピング&lt;/h4&gt;コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します&lt;br&gt;予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります&lt;br&gt;また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
+    <rPh sb="41" eb="43">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="290" eb="291">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;&lt;br&gt;&lt;h4&gt;評定者に提出を通知する&lt;/h4&gt;学生が課題を提出すると教員にメッセージ通知が送信されるように設定したい場合は、Yesにします&lt;br&gt;&lt;h4&gt;提出遅延者に関して評定者に通知する&lt;/h4&gt;学生の課題提出の遅延についての教員へのメッセージ通知が必要な場合、Yesにします&lt;br&gt;&lt;h4&gt;「学生に通知する」のデフォルト設定&lt;/h4&gt;それぞれの学生の評定を行う際、「学生に通知する」チェックボックスをデフォルトでONにしたい場合は、Yesにします</t>
+    <rPh sb="134" eb="136">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="202" eb="204">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="205" eb="207">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="245" eb="246">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>サイバアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1299,7 +1287,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1416,7 +1404,7 @@
     </row>
     <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -1431,7 +1419,7 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1446,7 +1434,7 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1461,7 +1449,7 @@
     </row>
     <row r="20" spans="2:4" ht="202.5">
       <c r="B20" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1474,9 +1462,9 @@
       <c r="B21" s="11"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" ht="175.5">
+    <row r="22" spans="2:4" ht="189">
       <c r="B22" s="13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1487,7 +1475,7 @@
     </row>
     <row r="23" spans="2:4" ht="67.5">
       <c r="B23" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1502,7 +1490,7 @@
     </row>
     <row r="25" spans="2:4" ht="121.5">
       <c r="B25" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
@@ -1517,7 +1505,7 @@
     </row>
     <row r="27" spans="2:4" ht="108">
       <c r="B27" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -1533,7 +1521,7 @@
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1945,33 +1933,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2220,26 +2181,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2256,4 +2225,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C5AAC-C98B-4426-8BA1-4393CA3C33E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB2228-BA5F-4CB9-B4D3-01CD99D61480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -389,77 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;ここでは、最大評点（満点）や合格点、評定方法等を設定します&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;br&gt;・評点（最大評点）：最大評点を設定します&lt;br&gt;・評定方法：評定方法を選択します&lt;br&gt;・評定カテゴリ：評定表内のカテゴリを選択します&lt;br&gt;・合格点：合格するために必要な最小評点を決定します&lt;br&gt;・匿名送信：評定時に学生の個人情報が表示されません&lt;br&gt;・学生から評定者IDを隠す：課題を評定する教員のIDが表示されず、学生が評定者を確認できません&lt;br&gt;・採点ワークフローを使用する：学生に公開される前に、評点はワークフローステージに入ります&lt;br&gt;　教員が一連の評点を同じタイミングで学生すべてに公開することができます&lt;br&gt;&lt;br&gt;　・採点割り当てを使用する：この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます&lt;br&gt;&lt;br&gt;※[評点]の[タイプ]を[なし]にすることで、評点を設定しないこともできます</t>
-    <rPh sb="70" eb="72">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>マンテン</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ゴウカクテン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>サンコウ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
-      <t>トクメイ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="278" eb="280">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="281" eb="283">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="285" eb="287">
-      <t>キョウイン</t>
-    </rPh>
-    <rPh sb="291" eb="293">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="297" eb="299">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="300" eb="303">
-      <t>ヒョウテイシャ</t>
-    </rPh>
-    <rPh sb="304" eb="306">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;・利用：課題を学生に公開するか否かを選択します&lt;br&gt;・ID ナンバー：評定計算の目的で活動を識別できます&lt;br&gt;　評定計算に活動が含まれていない場合、空白のままにすることができます&lt;br&gt;・グループモード：あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます&lt;br&gt;　・グループなし：グループ分けを使用しません&lt;br&gt;　・分離グループ：グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます&lt;br&gt;　・可視グループ：グループ別に活動を実施します学生は、他のグループを閲覧できます&lt;br&gt;&lt;br&gt;・グルーピング：グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="limit"&gt;&lt;/a&gt;利用制限と活動完了&lt;/h3&gt;以下の目次から「利用制限と活動完了」を参照してください。&lt;br&gt;■目次&lt;br&gt;https://support.vle.hiroshima-u.ac.jp/mdl:guide41:top</t>
     <rPh sb="38" eb="40">
       <t>イカ</t>
@@ -620,111 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;h4&gt;学生に提出ボタンのクリックを求める&lt;/h4&gt;※途中の設定変更ができません&lt;br&gt;■Yesの場合（デフォルト）&lt;br&gt;　提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;■Noの場合&lt;br&gt;　学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;h4&gt;学生に提出同意書の同意を求める&lt;/h4&gt;　「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;h4&gt;追加提出&lt;/h4&gt;　学生が課題を追加提出できるか設定します&lt;br&gt;　追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;　また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;■なし：学生が提出できるのは 1 回のみです&lt;br&gt;■手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;■合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;h4&gt;最大提出回数&lt;/h4&gt;　ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
-    <rPh sb="40" eb="42">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ブツ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>サイテイシュツ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ミト</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="255" eb="257">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="280" eb="281">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="542" eb="543">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="606" eb="608">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="737" eb="739">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="744" eb="746">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="752" eb="754">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="756" eb="760">
-      <t>テイシュツカイスウ</t>
-    </rPh>
-    <rPh sb="761" eb="762">
-      <t>タッ</t>
-    </rPh>
-    <rPh sb="764" eb="766">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="767" eb="769">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="770" eb="772">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="773" eb="775">
-      <t>サイド</t>
-    </rPh>
-    <rPh sb="775" eb="776">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします&lt;br&gt;&lt;br&gt;グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります&lt;br&gt;どのグループにも登録されていない学生はデフォルトグループに登録されます&lt;br&gt;&lt;br&gt;※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください&lt;br&gt;必要に応じて、次のパラメータの[Yes][No]を選択します&lt;br&gt;&lt;br&gt;&lt;h4&gt;提出にグループを必要とする&lt;/h4&gt;グループに所属している学生にのみ提出を許可するかどうかを決めます&lt;br&gt;ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グループメンバーすべての提出を必要とする&lt;/h4&gt;[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります&lt;br&gt;
-ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。&lt;br&gt;&lt;br&gt;&lt;h4&gt;学生グループのグルーピング&lt;/h4&gt;コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します&lt;br&gt;予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります&lt;br&gt;また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
-    <rPh sb="41" eb="43">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="290" eb="291">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="294" eb="295">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="312" eb="314">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="notice"&gt;&lt;/a&gt;通知&lt;/h3&gt;&lt;br&gt;&lt;h4&gt;評定者に提出を通知する&lt;/h4&gt;学生が課題を提出すると教員にメッセージ通知が送信されるように設定したい場合は、Yesにします&lt;br&gt;&lt;h4&gt;提出遅延者に関して評定者に通知する&lt;/h4&gt;学生の課題提出の遅延についての教員へのメッセージ通知が必要な場合、Yesにします&lt;br&gt;&lt;h4&gt;「学生に通知する」のデフォルト設定&lt;/h4&gt;それぞれの学生の評定を行う際、「学生に通知する」チェックボックスをデフォルトでONにしたい場合は、Yesにします</t>
     <rPh sb="134" eb="136">
       <t>バアイ</t>
@@ -753,6 +577,172 @@
     <rPh sb="247" eb="248">
       <t>サイバアイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="setting"&gt;&lt;/a&gt;提出設定&lt;/h3&gt;ここでは、学生に提出物の削除や差し替えを認めるか、再提出を認めないか等を選択します&lt;br&gt;&lt;h4&gt;学生に提出ボタンのクリックを求める&lt;/h4&gt;※途中の設定変更ができません&lt;br&gt;■Yesの場合（デフォルト）&lt;br&gt;提出時に学生には［課題を提出する］というボタンが表示されます。それをクリックすると、その時の提出物が最終提出物となり、それ以降、学生はその課題について提出物の差し替え、追加、削除を行うことができなくなります。&lt;br&gt;■Noの場合&lt;br&gt;学生は提出済みレポートの変更、削除を行うことができます。ただし、再提出ではないので残るレポートは1通のみとなります。&lt;br&gt;&lt;h4&gt;学生に提出同意書の同意を求める&lt;/h4&gt;　「Yes」にした場合、提出時に学生は、その提出物が自作のものであるという文章にチェックを入れることを求められます&lt;br&gt;&lt;h4&gt;追加提出&lt;/h4&gt;学生が課題を追加提出できるか設定します&lt;br&gt;追加提出の際、学生は［前回の提出をもとに新しい提出を追加する］か［新しい提出を追加する］かを選択することになります&lt;br&gt;また追加提出の可否に関わらず、学生が提出物の差し替え、追加、削除を行うには、遮断日時前（遮断日時未設定の場合も含む）かつ、提出ボタンをクリックしていない（提出ボタン未設定の場合も含む）状態である必要があります&lt;br&gt;&lt;br&gt;■なし：学生が提出できるのは 1 回のみです&lt;br&gt;■手動：教員の操作により、学生に追加提出させることができます&lt;br&gt;■合格するまで自動：課題に設定した合格点に達するまで、学生に追加提出させることができます&lt;br&gt;&lt;h4&gt;最大提出回数&lt;/h4&gt;ここで設定する提出回数に達した場合、学生は提出を再度開くことができないようになります</t>
+    <rPh sb="40" eb="42">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ブツ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>サイテイシュツ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ミト</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="537" eb="538">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="601" eb="603">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="732" eb="734">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="746" eb="748">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="750" eb="754">
+      <t>テイシュツカイスウ</t>
+    </rPh>
+    <rPh sb="755" eb="756">
+      <t>タッ</t>
+    </rPh>
+    <rPh sb="758" eb="760">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="761" eb="763">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="764" eb="766">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="767" eb="769">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="769" eb="770">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="group"&gt;&lt;/a&gt;グループ提出設定&lt;/h3&gt;グループ課題を作成したい場合に、[学生がグループで提出する]をYesにします&lt;br&gt;&lt;br&gt;グループ課題を作成する前に、コースにグループを作って学生をグループ登録しておく必要があります&lt;br&gt;どのグループにも登録されていない学生はデフォルトグループに登録されます&lt;br&gt;&lt;br&gt;※グループ課題の提出物はグループ内で共有され、グループ分けができていないためにデフォルトグループに追加された学生間では、意図しない提出物の共有が起こることがありますので、必ずすべての学生をグループに登録してください&lt;br&gt;必要に応じて、次のパラメータの[Yes][No]を選択します&lt;br&gt;&lt;br&gt;&lt;h4&gt;提出にグループを必要とする&lt;/h4&gt;グループに所属している学生にのみ提出を許可するかどうかを決めます&lt;br&gt;ここを［No］とした場合、参加者の一覧で「グループなし」の学生はデフォルトグループに組み入れられます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グループメンバーすべての提出を必要とする&lt;/h4&gt;[提出設定］の［学生に提出ボタンのクリックを求める］を［Yes］にすると選択可能になります&lt;br&gt;ここを［Yes］にすると提出物はグループ全員が提出ボタンを押すまで下書き状態になります。&lt;br&gt;&lt;br&gt;&lt;h4&gt;学生グループのグルーピング&lt;/h4&gt;コースに複数のグループがあり、その一部のグループにのみ課題を出したい時に使用します&lt;br&gt;予め課題を提出さたいグループをまとめたグルーピングを作成しておく必要があります&lt;br&gt;また課題を対象のグループに限定して出したい場合は、［提出にグループを必要とする］を［Yes］にしておく必要があります</t>
+    <rPh sb="41" eb="43">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="290" eb="291">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="point"&gt;&lt;/a&gt;評点&lt;/h3&gt;ここでは、最大評点（満点）や合格点、評定方法等を設定します&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;br&gt;&lt;h4&gt;評点（最大評点）&lt;/h4&gt;最大評点を設定します&lt;br&gt;&lt;h4&gt;評定方法&lt;/h4&gt;評定方法を選択します&lt;br&gt;&lt;h4&gt;評定カテゴリ&lt;/h4&gt;評定表内のカテゴリを選択します&lt;br&gt;&lt;h4&gt;合格点&lt;/h4&gt;合格するために必要な最小評点を決定します&lt;br&gt;&lt;h4&gt;匿名送信&lt;/h4&gt;評定時に学生の個人情報が表示されません&lt;br&gt;&lt;h4&gt;学生から評定者IDを隠す&lt;/h4&gt;課題を評定する教員のIDが表示されず、学生が評定者を確認できません&lt;br&gt;&lt;h4&gt;採点ワークフローを使用する&lt;/h4&gt;学生に公開される前に、評点はワークフローステージに入ります&lt;br&gt;　教員が一連の評点を同じタイミングで学生すべてに公開することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;採点割り当てを使用する&lt;/h4&gt;この設定と「採点ワークフローを使用する」設定を有効にした場合、個々の学生に採点者を割り振ることができます&lt;br&gt;&lt;br&gt;※[評点]の[タイプ]を[なし]にすることで、評点を設定しないこともできます</t>
+    <rPh sb="70" eb="72">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>マンテン</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="326" eb="328">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="330" eb="332">
+      <t>キョウイン</t>
+    </rPh>
+    <rPh sb="346" eb="348">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="349" eb="352">
+      <t>ヒョウテイシャ</t>
+    </rPh>
+    <rPh sb="353" eb="355">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;h4&gt;利用&lt;/h4&gt;課題を学生に公開するか否かを選択します&lt;br&gt;&lt;h4&gt;ID ナンバー&lt;/h4&gt;評定計算の目的で活動を識別できます&lt;br&gt;　評定計算に活動が含まれていない場合、空白のままにすることができます&lt;br&gt;&lt;h4&gt;グループモード&lt;/h4&gt;あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます&lt;br&gt;　&lt;h4&gt;グループなし&lt;/h4&gt;グループ分けを使用しません&lt;br&gt;　&lt;h4&gt;分離グループ&lt;/h4&gt;グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます&lt;br&gt;　&lt;h4&gt;可視グループ&lt;/h4&gt;グループ別に活動を実施します学生は、他のグループを閲覧できます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グルーピング&lt;/h4&gt;グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1286,7 +1276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1404,7 +1394,7 @@
     </row>
     <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -1419,7 +1409,7 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1434,7 +1424,7 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1447,9 +1437,9 @@
       <c r="B19" s="11"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="202.5">
+    <row r="20" spans="2:4" ht="189">
       <c r="B20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1464,7 +1454,7 @@
     </row>
     <row r="22" spans="2:4" ht="189">
       <c r="B22" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1475,7 +1465,7 @@
     </row>
     <row r="23" spans="2:4" ht="67.5">
       <c r="B23" s="12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1490,7 +1480,7 @@
     </row>
     <row r="25" spans="2:4" ht="121.5">
       <c r="B25" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
@@ -1505,7 +1495,7 @@
     </row>
     <row r="27" spans="2:4" ht="108">
       <c r="B27" s="13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -1521,7 +1511,7 @@
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1933,6 +1923,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2181,34 +2198,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2225,23 +2234,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BB2228-BA5F-4CB9-B4D3-01CD99D61480}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA59316-2CBF-430D-A73B-C5C8CABBEF67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -478,43 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;h4&gt;フィードバックタイプ&lt;/h4&gt;■PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;■オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;■フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;h4&gt;コメントインライン&lt;/h4&gt;■コメントインライン：オンラインテキストの課題の評定時にフィードバックを入力することができます</t>
-    <rPh sb="112" eb="113">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>キョウシ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>カダイ</t>
-    </rPh>
-    <rPh sb="174" eb="176">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="177" eb="180">
-      <t>ヒョウテイジ</t>
-    </rPh>
-    <rPh sb="181" eb="183">
-      <t>チュウシャク</t>
-    </rPh>
-    <rPh sb="183" eb="184">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="type"&gt;&lt;/a&gt;提出タイプ&lt;/h3&gt;&lt;h4&gt;提出タイプ&lt;/h4&gt;課題の提出方法を「オンラインテキスト入力」か「ファイル提出」か指定します&lt;br&gt;■オンラインテキスト&lt;br&gt;画面で直接テキスト入力して回答させる方法です&lt;br&gt;※オンラインテキストを選択した場合、[語数制限]にて、学生が提出することができる（英語での）最大語数を指定することができます&lt;br&gt;■ファイル提出&lt;br&gt;ファイル提出での回答を求めます&lt;br&gt;※次のパラメータで、提出できるファイル数、サイズ、タイプを指定することができます&lt;br&gt;&lt;br&gt;&lt;h4&gt;最大アップロードファイル数&lt;/h4&gt;提出可能なファイル数の上限です&lt;br&gt;&lt;h4&gt;最大提出サイズ&lt;/h4&gt;アップロード可能なファイルサイズの上限です&lt;br&gt;&lt;h4&gt;許可されるファイルタイプ&lt;/h4&gt;ファイルの拡張子で指定します</t>
     <rPh sb="78" eb="80">
       <t>シテイ</t>
@@ -742,7 +705,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;h4&gt;利用&lt;/h4&gt;課題を学生に公開するか否かを選択します&lt;br&gt;&lt;h4&gt;ID ナンバー&lt;/h4&gt;評定計算の目的で活動を識別できます&lt;br&gt;　評定計算に活動が含まれていない場合、空白のままにすることができます&lt;br&gt;&lt;h4&gt;グループモード&lt;/h4&gt;あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます&lt;br&gt;　&lt;h4&gt;グループなし&lt;/h4&gt;グループ分けを使用しません&lt;br&gt;　&lt;h4&gt;分離グループ&lt;/h4&gt;グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます&lt;br&gt;　&lt;h4&gt;可視グループ&lt;/h4&gt;グループ別に活動を実施します学生は、他のグループを閲覧できます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グルーピング&lt;/h4&gt;グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
+    <t>&lt;h3&gt;&lt;a name="feedback"&gt;&lt;/a&gt;フィードバックタイプ&lt;/h3&gt;[フィードバックコメント]にチェックを入れた場合、評定者はそれぞれの提出課題にフィードバックコメントを残すことができます&lt;br&gt;&lt;br&gt;その他のパラメータについても必要なものにチェックを入れます&lt;br&gt;&lt;h4&gt;フィードバックタイプ&lt;/h4&gt;■PDF注釈：教師は課題提出の評定時に注釈付きのPDFを作成することができます&lt;br&gt;■オンライン評定ワークシート：教師の課題評定時に学生評点のワークシートをダウンロードおよびアップロードできるようになります&lt;br&gt;■フィードバックファイル：課題の評定時にフィードバックと共にファイルをアップロードすることができます&lt;br&gt;&lt;h4&gt;コメントインライン&lt;/h4&gt;yesにするとオンラインテキストの課題の評定時にフィードバックを入力することができます</t>
+    <rPh sb="112" eb="113">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>キョウシ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="174" eb="176">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="177" eb="180">
+      <t>ヒョウテイジ</t>
+    </rPh>
+    <rPh sb="181" eb="183">
+      <t>チュウシャク</t>
+    </rPh>
+    <rPh sb="183" eb="184">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;h4&gt;利用&lt;/h4&gt;課題を学生に公開するか否かを選択します&lt;br&gt;&lt;h4&gt;ID ナンバー&lt;/h4&gt;評定計算の目的で活動を識別できます&lt;br&gt;評定計算に活動が含まれていない場合、空白のままにすることができます&lt;br&gt;&lt;h4&gt;グループモード&lt;/h4&gt;あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます&lt;br&gt;　&lt;h4&gt;グループなし&lt;/h4&gt;グループ分けを使用しません&lt;br&gt;　&lt;h4&gt;分離グループ&lt;/h4&gt;グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます&lt;br&gt;　&lt;h4&gt;可視グループ&lt;/h4&gt;グループ別に活動を実施します学生は、他のグループを閲覧できます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グルーピング&lt;/h4&gt;グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1424,7 +1424,7 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="20" spans="2:4" ht="189">
       <c r="B20" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="22" spans="2:4" ht="189">
       <c r="B22" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="23" spans="2:4" ht="67.5">
       <c r="B23" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="25" spans="2:4" ht="121.5">
       <c r="B25" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
@@ -1923,33 +1923,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2198,26 +2171,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2234,4 +2215,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/guide41_subject.xlsx
+++ b/guide41_subject.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72389518\OneDrive - Hiroshima University\デスクトップ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA59316-2CBF-430D-A73B-C5C8CABBEF67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F591D64D-B888-461E-B3D8-486232F96B0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4380" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="14" r:id="rId1"/>
     <sheet name="p1" sheetId="13" r:id="rId2"/>
     <sheet name="p2" sheetId="17" r:id="rId3"/>
-    <sheet name="p3" sheetId="18" r:id="rId4"/>
-    <sheet name="p4" sheetId="20" r:id="rId5"/>
+    <sheet name="p3" sheetId="25" r:id="rId4"/>
+    <sheet name="p4" sheetId="18" r:id="rId5"/>
+    <sheet name="p5" sheetId="21" r:id="rId6"/>
+    <sheet name="p6" sheetId="26" r:id="rId7"/>
+    <sheet name="p7" sheetId="24" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>header1</t>
   </si>
@@ -205,13 +208,6 @@
   </si>
   <si>
     <t>subject3_1.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生の評点を表示・入力する</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウテン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -745,12 +741,161 @@
     <t>&lt;h3&gt;&lt;a name="module"&gt;&lt;/a&gt;モジュール共通設定&lt;/h3&gt;&lt;br&gt;以下を参考に必要なパラメータの設定を行ってください&lt;br&gt;&lt;h4&gt;利用&lt;/h4&gt;課題を学生に公開するか否かを選択します&lt;br&gt;&lt;h4&gt;ID ナンバー&lt;/h4&gt;評定計算の目的で活動を識別できます&lt;br&gt;評定計算に活動が含まれていない場合、空白のままにすることができます&lt;br&gt;&lt;h4&gt;グループモード&lt;/h4&gt;あらかじめ、学生をいくつかのグループに分けておくと、グループ別に活動を実施するように設定できます&lt;br&gt;　&lt;h4&gt;グループなし&lt;/h4&gt;グループ分けを使用しません&lt;br&gt;　&lt;h4&gt;分離グループ&lt;/h4&gt;グループ別に活動を実施します。学生は、自分のグループ内のみ閲覧できます&lt;br&gt;　&lt;h4&gt;可視グループ&lt;/h4&gt;グループ別に活動を実施します学生は、他のグループを閲覧できます&lt;br&gt;&lt;br&gt;&lt;h4&gt;グルーピング&lt;/h4&gt;グループなしを選択した場合は設定できません。グルーピングを設定した場合、グルーピングに割り当てられたメンバー共同で作業することができます</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>課題の提出状況を確認する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個々の学生の提出状況を確認したい場合は、［すべての提出を表示する］をクリックし、一覧から確認します</t>
+    <rPh sb="0" eb="2">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>テイシュツジョウキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject5_1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject5_2.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>評定概要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>]から提出済みの課題の数や、要評定の数等、提出状況を確認することができます</t>
+    </r>
+    <rPh sb="1" eb="5">
+      <t>ヒョウテイガイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヨウヒョウテイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>テイシュツジョウキョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出期限を延長する【準備中】</t>
+    <rPh sb="10" eb="12">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備中です</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンビチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>課題の採点をする</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>採点結果を日付を指定して公開する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>【準備中】</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -825,6 +970,13 @@
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1214,7 +1366,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1276,7 +1428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEB116E-F9A6-4175-8412-6817F9A985E1}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1394,7 +1546,7 @@
     </row>
     <row r="14" spans="1:4" ht="94.5">
       <c r="B14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>19</v>
@@ -1409,7 +1561,7 @@
     </row>
     <row r="16" spans="1:4" ht="94.5">
       <c r="B16" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
@@ -1424,7 +1576,7 @@
     </row>
     <row r="18" spans="2:4" ht="94.5">
       <c r="B18" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>19</v>
@@ -1439,7 +1591,7 @@
     </row>
     <row r="20" spans="2:4" ht="189">
       <c r="B20" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>19</v>
@@ -1454,7 +1606,7 @@
     </row>
     <row r="22" spans="2:4" ht="189">
       <c r="B22" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>19</v>
@@ -1465,7 +1617,7 @@
     </row>
     <row r="23" spans="2:4" ht="67.5">
       <c r="B23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>19</v>
@@ -1480,7 +1632,7 @@
     </row>
     <row r="25" spans="2:4" ht="121.5">
       <c r="B25" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>19</v>
@@ -1495,7 +1647,7 @@
     </row>
     <row r="27" spans="2:4" ht="108">
       <c r="B27" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>19</v>
@@ -1511,7 +1663,7 @@
     </row>
     <row r="29" spans="2:4" ht="27">
       <c r="B29" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1678,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1569,7 +1721,7 @@
     <row r="4" spans="1:4">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1610,7 +1762,7 @@
     </row>
     <row r="9" spans="1:4" ht="18.75">
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
@@ -1627,11 +1779,157 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C854214-61AD-4271-96BF-1B914FDBEDF1}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="104" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75">
+      <c r="B8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.75">
+      <c r="B9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.75">
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.75">
+      <c r="B11" s="7"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="18" spans="4:4" ht="18.75">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="4:4" ht="18.75">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" ht="18.75">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" ht="18.75">
+      <c r="D22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BAD2457-B8D5-4B2C-9302-FA8021AA81C3}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1708,7 +2006,7 @@
     </row>
     <row r="8" spans="1:4" ht="59.25">
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
@@ -1730,7 +2028,7 @@
     </row>
     <row r="10" spans="1:4" ht="18.75">
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1775,32 +2073,158 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1868E-CC7F-4946-AF75-3C6468B7BA73}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89961487-8DCE-40E3-AFF2-7E6BAC499F7D}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
+    <col min="4" max="4" width="15.125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="13.5">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="13.5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" s="6" customFormat="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1">
+      <c r="B7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1D09FD-9A51-4550-BA59-0D90EDD14AE9}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="104" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
+    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="13.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="13.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +2234,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75">
+    <row r="3" spans="1:4" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1820,76 +2244,38 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:4">
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="4"/>
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:4">
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.75">
-      <c r="B8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75">
-      <c r="B9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75">
-      <c r="B10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="B11" s="7"/>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="C11" s="3"/>
       <c r="D11" s="1"/>
     </row>
@@ -1897,32 +2283,166 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
+    <row r="15" spans="1:4">
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="18.75">
+    <row r="16" spans="1:4">
       <c r="D16" s="1"/>
     </row>
-    <row r="18" spans="4:4" ht="18.75">
+    <row r="18" spans="4:4">
       <c r="D18" s="1"/>
     </row>
-    <row r="20" spans="4:4" ht="18.75">
+    <row r="20" spans="4:4">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="4:4" ht="18.75">
+    <row r="21" spans="4:4">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="4:4" ht="18.75">
+    <row r="22" spans="4:4">
       <c r="D22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="262" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62D1FD4-1194-4324-AEC5-C606CD1FF890}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="38.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="27">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" s="6" customFormat="1" ht="13.5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="6" customFormat="1">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="3"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="3"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -2171,34 +2691,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2215,23 +2727,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>